--- a/LAB Questions.xlsx
+++ b/LAB Questions.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael.Kissling\Documents\SourceTree\INTRO_KISSLING_HERGER\00_MEP Vorbereitung Raphael Kissling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.herger\Documents\SourceTree\INTRO_KISSLING_HERGER\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="9030" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="9036"/>
   </bookViews>
   <sheets>
     <sheet name="Raphael" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="203">
   <si>
     <t>Nr.</t>
   </si>
@@ -486,11 +486,347 @@
   <si>
     <t>LAB Questions INTRO</t>
   </si>
+  <si>
+    <t>FreeRTOS</t>
+  </si>
+  <si>
+    <t>Explain why you can replace your previous 10 ms timer interrupt with
+the RTOS tick.</t>
+  </si>
+  <si>
+    <t>Why typically the RTOS tick is having a low interrupt priority in the
+system?</t>
+  </si>
+  <si>
+    <t>What is the difference between vTaskDelayUntil() and vTask-
+Delay()?</t>
+  </si>
+  <si>
+    <t>For which use cases a 10 ms tick timer would be better than a 1 ms
+tick timer? When you need to consider a 1 ms tick timer?</t>
+  </si>
+  <si>
+    <t>Can you con gure FreeRTOS to run on an ARM Cortex M4F without foating point? What would be the impact?</t>
+  </si>
+  <si>
+    <t>Kernel Awareness</t>
+  </si>
+  <si>
+    <t>What does it mean that the views are 'stop-mode' views? What are
+the pros and cons of such an approach? How can you avoid a debug
+performance problem?</t>
+  </si>
+  <si>
+    <t>What is the advantage of using the SysTick for the Runtime Statistics?
+What is the disadvantage?</t>
+  </si>
+  <si>
+    <t>Why is information shown in the 'Runtime' column of the task list a
+relative time? Thinking about how the RTOS is measuring the time,
+what is not counted properly?</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Predict the execution pattern over time of Task1() and Task2(). Is it
+matching your expectation?</t>
+  </si>
+  <si>
+    <t>Creating too many tasks might not be a good idea. Why?</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>Describe the impact of 'blocking send' property in the Shell component.
+When would you enable 'blocking send', when not?</t>
+  </si>
+  <si>
+    <t>What is the di erence between the commands help and Shell help?
+Provide a justi cation or reasons for this behavior.</t>
+  </si>
+  <si>
+    <t>How can you use a standard I/O descriptor to redirect e.g. the output
+to a di erent hardware channel?</t>
+  </si>
+  <si>
+    <t>Why does the shell parser need a bu er to read in the characters?</t>
+  </si>
+  <si>
+    <t>The Shell command table is using a sentinel. What is the purpose of
+this sentinel?</t>
+  </si>
+  <si>
+    <t>Queues</t>
+  </si>
+  <si>
+    <t>CLS1_ReadAndParseWithCommandTable() method needs a pointer to a buffer and a size as parameter. Why is this size parameter needed?</t>
+  </si>
+  <si>
+    <t>Can you list the pros and cons of dynamic memory allocation?</t>
+  </si>
+  <si>
+    <t>Which different memory allocation schemes are o ered by FreeRTOS?
+What are the pros and cons?</t>
+  </si>
+  <si>
+    <t>So far the PL Deinit() typically had not much to do. What is di erent
+with QUEUE Deinit() and why?</t>
+  </si>
+  <si>
+    <t>How many characters are written from the queue in the shell loop in
+one iteration of the loop? Why is it implemented that way?</t>
+  </si>
+  <si>
+    <t>Is the call to SQUEUE ReceiveChar() blocking or non-blocking? Why?</t>
+  </si>
+  <si>
+    <t>Why needs the API to be different depending on if
+PL_CONFIG_SQUEUE_SINGLE_CHAR is enabled or not?</t>
+  </si>
+  <si>
+    <t>Semaphores and Mutex</t>
+  </si>
+  <si>
+    <t>xSemaphoreTake() is using a second argument. Describe for which use
+case this second argument would be useful?</t>
+  </si>
+  <si>
+    <t>With FreeRTOS, creating a semaphore, does it already have the token
+or not?</t>
+  </si>
+  <si>
+    <t>Can you explain the concept of 'queue with non data'?</t>
+  </si>
+  <si>
+    <t>Reentrancy</t>
+  </si>
+  <si>
+    <t>What are the critical section(s) needed by the  file system? What is
+needed to implement it with FreeRTOS?</t>
+  </si>
+  <si>
+    <t>If the SPI bus is shared with other devices, what is required to support
+it in a multi-threaded environment?</t>
+  </si>
+  <si>
+    <t>If only one task is using the file system: what would change this for
+the needed critical sections and the needed synchronization?</t>
+  </si>
+  <si>
+    <t>Can you describe a new/different use case for using a counting
+semaphore (other than the one presented in the slides)?</t>
+  </si>
+  <si>
+    <t>Why does a semaphore not know about the resource it is used for?</t>
+  </si>
+  <si>
+    <t>Why is it not necessary in FreeRTOS to return (unlock) a semaphore?</t>
+  </si>
+  <si>
+    <t>Why is it necessary in FreeRTOS to return a mutex if not used any
+more?</t>
+  </si>
+  <si>
+    <t>What is the di erence between a recursive and a non-recursive mutex
+in FreeRTOS?</t>
+  </si>
+  <si>
+    <t>SystemView</t>
+  </si>
+  <si>
+    <t>What is the fundamental di erence between what we have with the
+Kernel Awareness in Eclipse and the Segger SystemView? What kind
+of di erent analysis or data do you get?</t>
+  </si>
+  <si>
+    <t>Reflectance Sensor</t>
+  </si>
+  <si>
+    <t>The RefCnt component is used to measure the discharge time: you
+have implemented in a previous lab the trigger component: would it be
+possible to use it for the time measurement instead of using a dedicated Timer as used in RefCnt? Discuss pros and cons, and what would be the requirements for the trigger implementation. What about using the RefCntr as a timeout counter directly?</t>
+  </si>
+  <si>
+    <t>The BitIO components for the IR LED's are con gured to as input and
+output pins. Why?</t>
+  </si>
+  <si>
+    <t>The Reectance module is using an RTOS task to perform the state
+machine iterations and the measurement. What are the pros and cons
+of this approach? What alternative implementation patterns come to
+your mind?</t>
+  </si>
+  <si>
+    <t>The proposed solution is using EVNT REF START STOP CALIBRATION to
+start and stop calibration. Why such an approach is used?</t>
+  </si>
+  <si>
+    <t>Why is it important that the sensor measurement is not interrupted
+(say from another task)? How to prevent this? What about using
+RTOS task priorities?</t>
+  </si>
+  <si>
+    <t>What is the reason that IR1 SetOutput() cannot be directly used in
+the struct of function pointers?</t>
+  </si>
+  <si>
+    <t>The calibration is using a semaphore (REF StartStopSem). Explain
+why this is needed.</t>
+  </si>
+  <si>
+    <t>What are the raw values we measure and show in the shell for each
+sensor?</t>
+  </si>
+  <si>
+    <t>Nokia Display</t>
+  </si>
+  <si>
+    <t>Why is the FontDisplay component using x and y coordinates by ref-
+erence and not by value for its drawing routines?</t>
+  </si>
+  <si>
+    <t>Why is it necessary to call the GDisp1 UpdateFull() method? For
+what kind of displays such a method is not necessary?</t>
+  </si>
+  <si>
+    <t>The menu handler returns multiple status flags. For which cases you should return the LCDMENU_STATUS_FLAGS_UPDATE_VIEW flag?</t>
+  </si>
+  <si>
+    <t>Why is it necessary to set the requestLCDUpdate variable? What are
+the pros and cons of such an approach? This is a global variable, can
+you describe a better way how the radio message handler can ask for
+an update of the display?</t>
+  </si>
+  <si>
+    <t>Motor Signals</t>
+  </si>
+  <si>
+    <t>LCD Menu</t>
+  </si>
+  <si>
+    <t>Why can you not use a PWM frequency for say 50 kHz for one motor,
+and 80 kHz for the other motor? Could you use a 50 kHz for one, and
+100 kHz for the other?</t>
+  </si>
+  <si>
+    <t>Can you explain how the TPM generate a 10% duty cycle of the PWM
+signal?</t>
+  </si>
+  <si>
+    <t>What is the maximum frequency you can use for the PWM and the
+motor H-Bridge used?</t>
+  </si>
+  <si>
+    <t>What would be the e ect of using say a 5 or 10 kHz PWM frequency?
+Why?</t>
+  </si>
+  <si>
+    <t>Compare how the current direction and the current speed is stored in
+the motor driver. What is the di erence? What would you change,
+and why?</t>
+  </si>
+  <si>
+    <t>The details of MOT MotorDevice handle is exposed in Motor.h. Can
+you comment this?</t>
+  </si>
+  <si>
+    <t>Where are the data of the motor (PWM, percentage, function pointers)
+stored? What does it mean for reentrancy? What would you change,
+and how?</t>
+  </si>
+  <si>
+    <t>Quadrature</t>
+  </si>
+  <si>
+    <t>What would be the advantage of using an input capture or interrupt
+for the quadrature signal? What would be the disadvantage and why?</t>
+  </si>
+  <si>
+    <t>Why it could be a good idea to connect C1 and C2 signals to a bit 0
+and bit 1 of a port?</t>
+  </si>
+  <si>
+    <t>Tacho</t>
+  </si>
+  <si>
+    <t>Your instructor code might contain something like #define VALUE
+16U. What does the 'U' mean? What is the di erence between 16U
+and 16?</t>
+  </si>
+  <si>
+    <t>How does the tacho sampling period and the number of samples a ect
+the speed calculation?</t>
+  </si>
+  <si>
+    <t>We propose to use 'steps per second' as speed entity. Why not using
+RPM (Revolutions Per Minute)?</t>
+  </si>
+  <si>
+    <t>How could you use the ring bu er to implement a  time approach?</t>
+  </si>
+  <si>
+    <t>Closed Loop Control and Drive</t>
+  </si>
+  <si>
+    <t>Can you summarize the realtime aspects are exposed in this lab?</t>
+  </si>
+  <si>
+    <t>Why do we avoid the usage of floating point in the PID calculation?</t>
+  </si>
+  <si>
+    <t>What is the advantage of using a con guration structure for the PID
+function?</t>
+  </si>
+  <si>
+    <t>Why are there di erent PID con guration structures needed for the
+left and right motors?</t>
+  </si>
+  <si>
+    <t>What is the reason to have the PID Start() function and implemen-
+tation? Why is it needed?</t>
+  </si>
+  <si>
+    <t>If running the drive task in speed mode, and then switching to 'none',
+it could be that the wheels are still turning. Why?</t>
+  </si>
+  <si>
+    <t>Turn</t>
+  </si>
+  <si>
+    <t>Explain why the Segger J-Scope is so useful for this lab.</t>
+  </si>
+  <si>
+    <t>Think about how you can handle the 'start' and 'stop' button handling:
+queues, semaphore, mutex, events, direct task notifcation?</t>
+  </si>
+  <si>
+    <t>NVM Config</t>
+  </si>
+  <si>
+    <t>What is the advantage to use the internal microcontroller 
+ash compared to other methods? What is the disadvantage?</t>
+  </si>
+  <si>
+    <t>Why has the flash programming program part to run in RAM?</t>
+  </si>
+  <si>
+    <t>Radio Transceiver</t>
+  </si>
+  <si>
+    <t>What kind of possibilities do you have to restrict communication to
+your own devices? Discuss advantages/disadvantages of each approach.</t>
+  </si>
+  <si>
+    <t>What is the advantage and/or disadvantage of a hierarchical initializa-
+tion approach?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -574,6 +910,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -610,7 +952,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2"/>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -653,7 +1001,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1"/>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -978,21 +1332,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E294"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" customWidth="1"/>
-    <col min="4" max="4" width="60.42578125" customWidth="1"/>
-    <col min="5" max="5" width="54.140625" customWidth="1"/>
+    <col min="3" max="3" width="58.33203125" customWidth="1"/>
+    <col min="4" max="4" width="60.44140625" customWidth="1"/>
+    <col min="5" max="5" width="54.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -1001,14 +1355,14 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1025,7 +1379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1038,7 +1392,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1051,7 +1405,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1418,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1077,7 +1431,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1090,7 +1444,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -1103,7 +1457,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -1116,7 +1470,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1129,7 +1483,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
@@ -1142,7 +1496,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
@@ -1155,7 +1509,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -1168,7 +1522,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -1181,7 +1535,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
@@ -1194,7 +1548,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
@@ -1207,7 +1561,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
@@ -1220,7 +1574,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
@@ -1233,7 +1587,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
@@ -1246,7 +1600,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -1259,7 +1613,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>35</v>
       </c>
@@ -1272,7 +1626,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>35</v>
       </c>
@@ -1285,7 +1639,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
@@ -1298,7 +1652,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
@@ -1311,7 +1665,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>35</v>
       </c>
@@ -1324,7 +1678,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>41</v>
       </c>
@@ -1337,7 +1691,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>41</v>
       </c>
@@ -1350,7 +1704,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>41</v>
       </c>
@@ -1363,7 +1717,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>45</v>
       </c>
@@ -1376,7 +1730,7 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>45</v>
       </c>
@@ -1389,7 +1743,7 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>45</v>
       </c>
@@ -1402,7 +1756,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>45</v>
       </c>
@@ -1415,7 +1769,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>45</v>
       </c>
@@ -1428,7 +1782,7 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>45</v>
       </c>
@@ -1441,7 +1795,7 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>52</v>
       </c>
@@ -1454,7 +1808,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>52</v>
       </c>
@@ -1467,7 +1821,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>52</v>
       </c>
@@ -1480,7 +1834,7 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>52</v>
       </c>
@@ -1493,7 +1847,7 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>52</v>
       </c>
@@ -1506,7 +1860,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>52</v>
       </c>
@@ -1519,7 +1873,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>52</v>
       </c>
@@ -1532,7 +1886,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>52</v>
       </c>
@@ -1545,7 +1899,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>61</v>
       </c>
@@ -1558,7 +1912,7 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>61</v>
       </c>
@@ -1571,7 +1925,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>61</v>
       </c>
@@ -1584,7 +1938,7 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>69</v>
       </c>
@@ -1597,7 +1951,7 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>69</v>
       </c>
@@ -1610,7 +1964,7 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>69</v>
       </c>
@@ -1623,7 +1977,7 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>69</v>
       </c>
@@ -1636,7 +1990,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>69</v>
       </c>
@@ -1649,7 +2003,7 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>69</v>
       </c>
@@ -1662,7 +2016,7 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>69</v>
       </c>
@@ -1675,7 +2029,7 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>70</v>
       </c>
@@ -1688,7 +2042,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>70</v>
       </c>
@@ -1701,7 +2055,7 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>70</v>
       </c>
@@ -1714,7 +2068,7 @@
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>70</v>
       </c>
@@ -1727,7 +2081,7 @@
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>70</v>
       </c>
@@ -1740,7 +2094,7 @@
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>70</v>
       </c>
@@ -1753,7 +2107,7 @@
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>70</v>
       </c>
@@ -1766,7 +2120,7 @@
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>78</v>
       </c>
@@ -1779,7 +2133,7 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
     </row>
-    <row r="62" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>78</v>
       </c>
@@ -1792,7 +2146,7 @@
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>78</v>
       </c>
@@ -1805,7 +2159,7 @@
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>78</v>
       </c>
@@ -1818,7 +2172,7 @@
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>78</v>
       </c>
@@ -1831,7 +2185,7 @@
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>78</v>
       </c>
@@ -1844,7 +2198,7 @@
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>78</v>
       </c>
@@ -1857,7 +2211,7 @@
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>78</v>
       </c>
@@ -1870,7 +2224,7 @@
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>87</v>
       </c>
@@ -1883,7 +2237,7 @@
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>87</v>
       </c>
@@ -1896,7 +2250,7 @@
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>87</v>
       </c>
@@ -1909,7 +2263,7 @@
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>87</v>
       </c>
@@ -1922,7 +2276,7 @@
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>92</v>
       </c>
@@ -1935,7 +2289,7 @@
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>92</v>
       </c>
@@ -1948,7 +2302,7 @@
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>95</v>
       </c>
@@ -1961,7 +2315,7 @@
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>96</v>
       </c>
@@ -1974,7 +2328,7 @@
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>95</v>
       </c>
@@ -1987,7 +2341,7 @@
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>96</v>
       </c>
@@ -2000,7 +2354,7 @@
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
     </row>
-    <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>101</v>
       </c>
@@ -2013,7 +2367,7 @@
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>101</v>
       </c>
@@ -2026,7 +2380,7 @@
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
     </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>101</v>
       </c>
@@ -2039,7 +2393,7 @@
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>101</v>
       </c>
@@ -2052,7 +2406,7 @@
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>101</v>
       </c>
@@ -2065,7 +2419,7 @@
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>107</v>
       </c>
@@ -2078,7 +2432,7 @@
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>107</v>
       </c>
@@ -2091,7 +2445,7 @@
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>107</v>
       </c>
@@ -2104,7 +2458,7 @@
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
     </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>107</v>
       </c>
@@ -2117,7 +2471,7 @@
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>107</v>
       </c>
@@ -2130,1442 +2484,1868 @@
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="7"/>
+    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="8">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="7"/>
+    <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90" s="8">
+        <v>19.2</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="7"/>
+    <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" s="8">
+        <v>19.3</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="7"/>
+    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92" s="8">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="7"/>
+    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="8">
+        <v>19.5</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="7"/>
+    <row r="94" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" s="8">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="7"/>
+    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="8">
+        <v>20.2</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="7"/>
+    <row r="96" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96" s="8">
+        <v>20.3</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="7"/>
+    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" s="8">
+        <v>21.1</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="7"/>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" s="8">
+        <v>21.2</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="7"/>
+    <row r="99" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99" s="8">
+        <v>22.1</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="7"/>
+    <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" s="8">
+        <v>22.2</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="7"/>
+    <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" s="8">
+        <v>22.3</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="7"/>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102" s="8">
+        <v>22.4</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="7"/>
+    <row r="103" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" s="8">
+        <v>22.5</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="7"/>
+    <row r="104" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="8">
+        <v>22.6</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="6"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="7"/>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105" s="8">
+        <v>23.1</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="7"/>
+    <row r="106" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" s="8">
+        <v>23.2</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="7"/>
+    <row r="107" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107" s="8">
+        <v>23.3</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="7"/>
+    <row r="108" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="8">
+        <v>23.4</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="6"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="7"/>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" s="8">
+        <v>23.5</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="7"/>
+    <row r="110" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B110" s="8">
+        <v>23.6</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="6"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="7"/>
+    <row r="111" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="8">
+        <v>24.1</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="6"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="7"/>
+    <row r="112" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" s="8">
+        <v>24.2</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="6"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="7"/>
+    <row r="113" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="8">
+        <v>24.3</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="7"/>
+    <row r="114" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B114" s="8">
+        <v>25.1</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="6"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="7"/>
+    <row r="115" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" s="8">
+        <v>25.2</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="6"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="7"/>
+    <row r="116" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116" s="8">
+        <v>25.3</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="6"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="7"/>
+    <row r="117" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117" s="8">
+        <v>25.4</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="6"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="7"/>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B118" s="8">
+        <v>25.5</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="7"/>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B119" s="8">
+        <v>25.6</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="6"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="7"/>
+    <row r="120" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" s="8">
+        <v>25.7</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="6"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="7"/>
+    <row r="121" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" s="8">
+        <v>25.8</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="7"/>
+    <row r="122" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B122" s="8">
+        <v>26.1</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="6"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="7"/>
+    <row r="123" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B123" s="8">
+        <v>27.1</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="6"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="7"/>
+    <row r="124" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B124" s="8">
+        <v>27.2</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="6"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="7"/>
+    <row r="125" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B125" s="8">
+        <v>27.3</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>159</v>
+      </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="6"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="7"/>
+    <row r="126" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B126" s="8">
+        <v>27.4</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="6"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="7"/>
+    <row r="127" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B127" s="8">
+        <v>27.5</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="6"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="7"/>
+    <row r="128" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B128" s="8">
+        <v>27.6</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="6"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="7"/>
+    <row r="129" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B129" s="8">
+        <v>27.7</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="6"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="7"/>
+    <row r="130" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B130" s="8">
+        <v>27.8</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="6"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="7"/>
+    <row r="131" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B131" s="8">
+        <v>28.1</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="6"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="7"/>
+    <row r="132" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B132" s="8">
+        <v>28.2</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="6"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="7"/>
+    <row r="133" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B133" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="6"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="7"/>
+    <row r="134" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B134" s="8">
+        <v>29.2</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="6"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="7"/>
+    <row r="135" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B135" s="8">
+        <v>30.1</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="6"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="7"/>
+    <row r="136" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B136" s="8">
+        <v>30.2</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="6"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="7"/>
+    <row r="137" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B137" s="8">
+        <v>30.3</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="6"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="7"/>
+    <row r="138" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B138" s="8">
+        <v>30.4</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="6"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="7"/>
+    <row r="139" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B139" s="8">
+        <v>30.5</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="6"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="7"/>
+    <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B140" s="8">
+        <v>30.6</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="6"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="7"/>
+    <row r="141" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B141" s="8">
+        <v>30.7</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="6"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="7"/>
+    <row r="142" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B142" s="8">
+        <v>31.1</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="6"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="7"/>
+    <row r="143" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B143" s="8">
+        <v>31.2</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>181</v>
+      </c>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="6"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="7"/>
+    <row r="144" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A144" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B144" s="8">
+        <v>32.1</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>183</v>
+      </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="6"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="7"/>
+    <row r="145" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A145" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B145" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>184</v>
+      </c>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="6"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="7"/>
+    <row r="146" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B146" s="8">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="6"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="7"/>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B147" s="8">
+        <v>32.4</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>186</v>
+      </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="6"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="7"/>
+    <row r="148" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A148" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B148" s="8">
+        <v>33.1</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="6"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="7"/>
+    <row r="149" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A149" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B149" s="8">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="6"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="7"/>
+    <row r="150" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A150" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B150" s="8">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="6"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="7"/>
+    <row r="151" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B151" s="8">
+        <v>33.4</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="6"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="7"/>
+    <row r="152" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B152" s="8">
+        <v>33.5</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="6"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="7"/>
+    <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A153" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B153" s="8">
+        <v>33.6</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="6"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="7"/>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B154" s="8">
+        <v>34.1</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="6"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="7"/>
+    <row r="155" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A155" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B155" s="8">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="6"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="7"/>
+    <row r="156" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A156" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B156" s="8">
+        <v>35.1</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="6"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="7"/>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B157" s="8">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>199</v>
+      </c>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="6"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="7"/>
+    <row r="158" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A158" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B158" s="8">
+        <v>36.1</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="6"/>
-      <c r="B159" s="8"/>
-      <c r="C159" s="7"/>
+    <row r="159" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A159" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B159" s="8">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
       <c r="B160" s="8"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="6"/>
       <c r="B161" s="8"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="6"/>
       <c r="B162" s="8"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="6"/>
       <c r="B163" s="8"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="6"/>
       <c r="B164" s="8"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="6"/>
       <c r="B165" s="8"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="6"/>
       <c r="B166" s="8"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="6"/>
       <c r="B167" s="8"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="6"/>
       <c r="B168" s="8"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="6"/>
       <c r="B169" s="8"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="6"/>
       <c r="B170" s="8"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
       <c r="B171" s="8"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="6"/>
       <c r="B172" s="8"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="6"/>
       <c r="B173" s="8"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="6"/>
       <c r="B174" s="8"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="6"/>
       <c r="B175" s="8"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="6"/>
       <c r="B176" s="8"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="6"/>
       <c r="B177" s="8"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="6"/>
       <c r="B178" s="8"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="6"/>
       <c r="B179" s="8"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="6"/>
       <c r="B180" s="8"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="6"/>
       <c r="B181" s="8"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="6"/>
       <c r="B182" s="8"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="6"/>
       <c r="B183" s="8"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="6"/>
       <c r="B184" s="8"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="6"/>
       <c r="B185" s="8"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="6"/>
       <c r="B186" s="8"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="6"/>
       <c r="B187" s="8"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="6"/>
       <c r="B188" s="8"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="6"/>
       <c r="B189" s="8"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="6"/>
       <c r="B190" s="8"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="6"/>
       <c r="B191" s="8"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="6"/>
       <c r="B192" s="8"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
       <c r="B193" s="8"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="6"/>
       <c r="B194" s="8"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
       <c r="B195" s="8"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="8"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
       <c r="B197" s="8"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
       <c r="B198" s="8"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
       <c r="B199" s="8"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="8"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
       <c r="B201" s="8"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
       <c r="B202" s="8"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
       <c r="B203" s="8"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
       <c r="B204" s="8"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
       <c r="B205" s="8"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
       <c r="B206" s="8"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="6"/>
       <c r="B207" s="8"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
       <c r="B208" s="8"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="6"/>
       <c r="B209" s="8"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
       <c r="B210" s="8"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
       <c r="B211" s="8"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="6"/>
       <c r="B212" s="8"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="6"/>
       <c r="B213" s="8"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
       <c r="B214" s="8"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="6"/>
       <c r="B215" s="8"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="6"/>
       <c r="B216" s="8"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="6"/>
       <c r="B217" s="8"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
       <c r="B218" s="8"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
       <c r="B219" s="8"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="6"/>
       <c r="B220" s="8"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="6"/>
       <c r="B221" s="8"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="8"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
       <c r="B223" s="8"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="8"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
       <c r="B225" s="8"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="8"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="8"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="8"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="8"/>
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="8"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="8"/>
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="8"/>
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="B233" s="8"/>
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
       <c r="B234" s="8"/>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
       <c r="B235" s="8"/>
       <c r="C235" s="7"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="6"/>
       <c r="B236" s="8"/>
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="6"/>
       <c r="B237" s="8"/>
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="6"/>
       <c r="B238" s="8"/>
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="6"/>
       <c r="B239" s="8"/>
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="6"/>
       <c r="B240" s="8"/>
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="6"/>
       <c r="B241" s="8"/>
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="6"/>
       <c r="B242" s="8"/>
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="6"/>
       <c r="B243" s="8"/>
       <c r="C243" s="7"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="6"/>
       <c r="B244" s="8"/>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="6"/>
       <c r="B245" s="8"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="6"/>
       <c r="B246" s="8"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="6"/>
       <c r="B247" s="8"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="6"/>
       <c r="B248" s="8"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="6"/>
       <c r="B249" s="8"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="6"/>
       <c r="B250" s="8"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="6"/>
       <c r="B251" s="8"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="6"/>
       <c r="B252" s="8"/>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="6"/>
       <c r="B253" s="8"/>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="6"/>
       <c r="B254" s="8"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="6"/>
       <c r="B255" s="8"/>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="6"/>
       <c r="B256" s="8"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="6"/>
       <c r="B257" s="8"/>
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="6"/>
       <c r="B258" s="8"/>
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="6"/>
       <c r="B259" s="8"/>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="6"/>
       <c r="B260" s="8"/>
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="6"/>
       <c r="B261" s="8"/>
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="6"/>
       <c r="B262" s="8"/>
       <c r="C262" s="7"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="6"/>
       <c r="B263" s="8"/>
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="6"/>
       <c r="B264" s="8"/>
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="6"/>
       <c r="B265" s="8"/>
       <c r="C265" s="7"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="6"/>
       <c r="B266" s="8"/>
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="6"/>
       <c r="B267" s="8"/>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="6"/>
       <c r="B268" s="8"/>
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="6"/>
       <c r="B269" s="8"/>
       <c r="C269" s="7"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="6"/>
       <c r="B270" s="8"/>
       <c r="C270" s="7"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="6"/>
       <c r="B271" s="8"/>
       <c r="C271" s="7"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="6"/>
       <c r="B272" s="8"/>
       <c r="C272" s="7"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="6"/>
       <c r="B273" s="8"/>
       <c r="C273" s="7"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="6"/>
       <c r="B274" s="8"/>
       <c r="C274" s="7"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="6"/>
       <c r="B275" s="8"/>
       <c r="C275" s="7"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="6"/>
       <c r="B276" s="8"/>
       <c r="C276" s="7"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="6"/>
       <c r="B277" s="8"/>
       <c r="C277" s="7"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="6"/>
       <c r="B278" s="8"/>
       <c r="C278" s="7"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="6"/>
       <c r="B279" s="8"/>
       <c r="C279" s="7"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="6"/>
       <c r="B280" s="8"/>
       <c r="C280" s="7"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="6"/>
       <c r="B281" s="8"/>
       <c r="C281" s="7"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="6"/>
       <c r="B282" s="8"/>
       <c r="C282" s="7"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="6"/>
       <c r="B283" s="8"/>
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="6"/>
       <c r="B284" s="8"/>
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="6"/>
       <c r="B285" s="8"/>
       <c r="C285" s="7"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="6"/>
       <c r="B286" s="8"/>
       <c r="C286" s="7"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="6"/>
       <c r="B287" s="8"/>
       <c r="C287" s="7"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="6"/>
       <c r="B288" s="8"/>
       <c r="C288" s="7"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="6"/>
       <c r="B289" s="8"/>
       <c r="C289" s="7"/>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="6"/>
       <c r="B290" s="8"/>
       <c r="C290" s="7"/>
       <c r="D290" s="7"/>
       <c r="E290" s="7"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="6"/>
       <c r="B291" s="8"/>
       <c r="C291" s="7"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="6"/>
       <c r="B292" s="8"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="6"/>
       <c r="B293" s="8"/>
       <c r="C293" s="7"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="6"/>
       <c r="B294" s="8"/>
       <c r="C294" s="7"/>
@@ -3584,21 +4364,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="D84:E84"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89:C159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" customWidth="1"/>
-    <col min="4" max="4" width="60.42578125" customWidth="1"/>
-    <col min="5" max="5" width="54.140625" customWidth="1"/>
+    <col min="3" max="3" width="58.33203125" customWidth="1"/>
+    <col min="4" max="4" width="60.44140625" customWidth="1"/>
+    <col min="5" max="5" width="54.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -3607,14 +4387,14 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3631,7 +4411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3644,7 +4424,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -3657,7 +4437,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -3670,7 +4450,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -3683,7 +4463,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -3696,7 +4476,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -3709,7 +4489,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -3722,7 +4502,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -3735,7 +4515,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
@@ -3748,7 +4528,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
@@ -3761,7 +4541,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -3774,7 +4554,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -3787,7 +4567,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
@@ -3800,7 +4580,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
@@ -3813,7 +4593,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
@@ -3826,7 +4606,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
@@ -3839,7 +4619,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
@@ -3852,7 +4632,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -3865,7 +4645,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>35</v>
       </c>
@@ -3878,7 +4658,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>35</v>
       </c>
@@ -3891,7 +4671,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
@@ -3904,7 +4684,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
@@ -3917,7 +4697,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>35</v>
       </c>
@@ -3930,7 +4710,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>41</v>
       </c>
@@ -3943,7 +4723,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>41</v>
       </c>
@@ -3956,7 +4736,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>41</v>
       </c>
@@ -3969,7 +4749,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>45</v>
       </c>
@@ -3982,7 +4762,7 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>45</v>
       </c>
@@ -3995,7 +4775,7 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>45</v>
       </c>
@@ -4008,7 +4788,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>45</v>
       </c>
@@ -4021,7 +4801,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>45</v>
       </c>
@@ -4034,7 +4814,7 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>45</v>
       </c>
@@ -4047,7 +4827,7 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>52</v>
       </c>
@@ -4060,7 +4840,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>52</v>
       </c>
@@ -4073,7 +4853,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>52</v>
       </c>
@@ -4086,7 +4866,7 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>52</v>
       </c>
@@ -4099,7 +4879,7 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>52</v>
       </c>
@@ -4112,7 +4892,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>52</v>
       </c>
@@ -4125,7 +4905,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>52</v>
       </c>
@@ -4138,7 +4918,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>52</v>
       </c>
@@ -4151,7 +4931,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>61</v>
       </c>
@@ -4164,7 +4944,7 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>61</v>
       </c>
@@ -4177,7 +4957,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>61</v>
       </c>
@@ -4190,7 +4970,7 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>69</v>
       </c>
@@ -4207,7 +4987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>69</v>
       </c>
@@ -4222,7 +5002,7 @@
       </c>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>69</v>
       </c>
@@ -4237,7 +5017,7 @@
       </c>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>69</v>
       </c>
@@ -4250,7 +5030,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>69</v>
       </c>
@@ -4265,7 +5045,7 @@
       </c>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>69</v>
       </c>
@@ -4278,7 +5058,7 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>69</v>
       </c>
@@ -4291,7 +5071,7 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>70</v>
       </c>
@@ -4304,7 +5084,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>70</v>
       </c>
@@ -4317,7 +5097,7 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>70</v>
       </c>
@@ -4330,7 +5110,7 @@
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>70</v>
       </c>
@@ -4343,7 +5123,7 @@
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>70</v>
       </c>
@@ -4356,7 +5136,7 @@
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>70</v>
       </c>
@@ -4369,7 +5149,7 @@
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>70</v>
       </c>
@@ -4382,7 +5162,7 @@
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>78</v>
       </c>
@@ -4395,7 +5175,7 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
     </row>
-    <row r="62" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>78</v>
       </c>
@@ -4408,7 +5188,7 @@
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>78</v>
       </c>
@@ -4421,7 +5201,7 @@
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>78</v>
       </c>
@@ -4434,7 +5214,7 @@
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>78</v>
       </c>
@@ -4447,7 +5227,7 @@
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>78</v>
       </c>
@@ -4460,7 +5240,7 @@
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>78</v>
       </c>
@@ -4473,7 +5253,7 @@
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>78</v>
       </c>
@@ -4486,7 +5266,7 @@
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>87</v>
       </c>
@@ -4499,7 +5279,7 @@
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>87</v>
       </c>
@@ -4512,7 +5292,7 @@
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>87</v>
       </c>
@@ -4525,7 +5305,7 @@
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>87</v>
       </c>
@@ -4538,7 +5318,7 @@
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>92</v>
       </c>
@@ -4551,7 +5331,7 @@
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>92</v>
       </c>
@@ -4564,7 +5344,7 @@
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>95</v>
       </c>
@@ -4577,7 +5357,7 @@
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>96</v>
       </c>
@@ -4590,7 +5370,7 @@
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>95</v>
       </c>
@@ -4603,7 +5383,7 @@
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>96</v>
       </c>
@@ -4616,7 +5396,7 @@
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
     </row>
-    <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>101</v>
       </c>
@@ -4629,7 +5409,7 @@
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>101</v>
       </c>
@@ -4642,7 +5422,7 @@
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
     </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>101</v>
       </c>
@@ -4655,7 +5435,7 @@
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>101</v>
       </c>
@@ -4668,7 +5448,7 @@
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>101</v>
       </c>
@@ -4681,7 +5461,7 @@
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>107</v>
       </c>
@@ -4694,7 +5474,7 @@
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>107</v>
       </c>
@@ -4707,7 +5487,7 @@
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>107</v>
       </c>
@@ -4720,7 +5500,7 @@
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
     </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>107</v>
       </c>
@@ -4733,7 +5513,7 @@
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>107</v>
       </c>
@@ -4746,1442 +5526,1868 @@
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="7"/>
+    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="8">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="7"/>
+    <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90" s="8">
+        <v>19.2</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="7"/>
+    <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" s="8">
+        <v>19.3</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="7"/>
+    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92" s="8">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="7"/>
+    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="8">
+        <v>19.5</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="7"/>
+    <row r="94" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" s="8">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="7"/>
+    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="8">
+        <v>20.2</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="7"/>
+    <row r="96" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96" s="8">
+        <v>20.3</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="7"/>
+    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" s="8">
+        <v>21.1</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="7"/>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" s="8">
+        <v>21.2</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="7"/>
+    <row r="99" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99" s="8">
+        <v>22.1</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="7"/>
+    <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" s="8">
+        <v>22.2</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="7"/>
+    <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" s="8">
+        <v>22.3</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="7"/>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102" s="8">
+        <v>22.4</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="7"/>
+    <row r="103" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" s="8">
+        <v>22.5</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="7"/>
+    <row r="104" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="8">
+        <v>22.6</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="6"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="7"/>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105" s="8">
+        <v>23.1</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="7"/>
+    <row r="106" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" s="8">
+        <v>23.2</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="7"/>
+    <row r="107" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107" s="8">
+        <v>23.3</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="7"/>
+    <row r="108" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="8">
+        <v>23.4</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="6"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="7"/>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" s="8">
+        <v>23.5</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="7"/>
+    <row r="110" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B110" s="8">
+        <v>23.6</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="6"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="7"/>
+    <row r="111" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="8">
+        <v>24.1</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="6"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="7"/>
+    <row r="112" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" s="8">
+        <v>24.2</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="6"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="7"/>
+    <row r="113" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="8">
+        <v>24.3</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="7"/>
+    <row r="114" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B114" s="8">
+        <v>25.1</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="6"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="7"/>
+    <row r="115" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" s="8">
+        <v>25.2</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="6"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="7"/>
+    <row r="116" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116" s="8">
+        <v>25.3</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="6"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="7"/>
+    <row r="117" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117" s="8">
+        <v>25.4</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="6"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="7"/>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B118" s="8">
+        <v>25.5</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="7"/>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B119" s="8">
+        <v>25.6</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="6"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="7"/>
+    <row r="120" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" s="8">
+        <v>25.7</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="6"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="7"/>
+    <row r="121" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" s="8">
+        <v>25.8</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="7"/>
+    <row r="122" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B122" s="8">
+        <v>26.1</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="6"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="7"/>
+    <row r="123" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B123" s="8">
+        <v>27.1</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="6"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="7"/>
+    <row r="124" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B124" s="8">
+        <v>27.2</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="6"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="7"/>
+    <row r="125" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B125" s="8">
+        <v>27.3</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>159</v>
+      </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="6"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="7"/>
+    <row r="126" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B126" s="8">
+        <v>27.4</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="6"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="7"/>
+    <row r="127" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B127" s="8">
+        <v>27.5</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="6"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="7"/>
+    <row r="128" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B128" s="8">
+        <v>27.6</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="6"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="7"/>
+    <row r="129" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B129" s="8">
+        <v>27.7</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="6"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="7"/>
+    <row r="130" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B130" s="8">
+        <v>27.8</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="6"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="7"/>
+    <row r="131" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B131" s="8">
+        <v>28.1</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="6"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="7"/>
+    <row r="132" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B132" s="8">
+        <v>28.2</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="6"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="7"/>
+    <row r="133" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B133" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="6"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="7"/>
+    <row r="134" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B134" s="8">
+        <v>29.2</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="6"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="7"/>
+    <row r="135" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B135" s="8">
+        <v>30.1</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="6"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="7"/>
+    <row r="136" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B136" s="8">
+        <v>30.2</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="6"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="7"/>
+    <row r="137" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B137" s="8">
+        <v>30.3</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="6"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="7"/>
+    <row r="138" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B138" s="8">
+        <v>30.4</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="6"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="7"/>
+    <row r="139" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B139" s="8">
+        <v>30.5</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="6"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="7"/>
+    <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B140" s="8">
+        <v>30.6</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="6"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="7"/>
+    <row r="141" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B141" s="8">
+        <v>30.7</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="6"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="7"/>
+    <row r="142" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B142" s="8">
+        <v>31.1</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="6"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="7"/>
+    <row r="143" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B143" s="8">
+        <v>31.2</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>181</v>
+      </c>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="6"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="7"/>
+    <row r="144" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A144" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B144" s="8">
+        <v>32.1</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>183</v>
+      </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="6"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="7"/>
+    <row r="145" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A145" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B145" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>184</v>
+      </c>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="6"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="7"/>
+    <row r="146" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B146" s="8">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="6"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="7"/>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B147" s="8">
+        <v>32.4</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>186</v>
+      </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="6"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="7"/>
+    <row r="148" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A148" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B148" s="8">
+        <v>33.1</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="6"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="7"/>
+    <row r="149" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A149" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B149" s="8">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="6"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="7"/>
+    <row r="150" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A150" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B150" s="8">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="6"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="7"/>
+    <row r="151" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B151" s="8">
+        <v>33.4</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="6"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="7"/>
+    <row r="152" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B152" s="8">
+        <v>33.5</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="6"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="7"/>
+    <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A153" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B153" s="8">
+        <v>33.6</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="6"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="7"/>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B154" s="8">
+        <v>34.1</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="6"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="7"/>
+    <row r="155" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A155" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B155" s="8">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="6"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="7"/>
+    <row r="156" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A156" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B156" s="8">
+        <v>35.1</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="6"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="7"/>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B157" s="8">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>199</v>
+      </c>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="6"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="7"/>
+    <row r="158" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A158" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B158" s="8">
+        <v>36.1</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="6"/>
-      <c r="B159" s="8"/>
-      <c r="C159" s="7"/>
+    <row r="159" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A159" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B159" s="8">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
       <c r="B160" s="8"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="6"/>
       <c r="B161" s="8"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="6"/>
       <c r="B162" s="8"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="6"/>
       <c r="B163" s="8"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="6"/>
       <c r="B164" s="8"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="6"/>
       <c r="B165" s="8"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="6"/>
       <c r="B166" s="8"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="6"/>
       <c r="B167" s="8"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="6"/>
       <c r="B168" s="8"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="6"/>
       <c r="B169" s="8"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="6"/>
       <c r="B170" s="8"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
       <c r="B171" s="8"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="6"/>
       <c r="B172" s="8"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="6"/>
       <c r="B173" s="8"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="6"/>
       <c r="B174" s="8"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="6"/>
       <c r="B175" s="8"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="6"/>
       <c r="B176" s="8"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="6"/>
       <c r="B177" s="8"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="6"/>
       <c r="B178" s="8"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="6"/>
       <c r="B179" s="8"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="6"/>
       <c r="B180" s="8"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="6"/>
       <c r="B181" s="8"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="6"/>
       <c r="B182" s="8"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="6"/>
       <c r="B183" s="8"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="6"/>
       <c r="B184" s="8"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="6"/>
       <c r="B185" s="8"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="6"/>
       <c r="B186" s="8"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="6"/>
       <c r="B187" s="8"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="6"/>
       <c r="B188" s="8"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="6"/>
       <c r="B189" s="8"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="6"/>
       <c r="B190" s="8"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="6"/>
       <c r="B191" s="8"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="6"/>
       <c r="B192" s="8"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
       <c r="B193" s="8"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="6"/>
       <c r="B194" s="8"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
       <c r="B195" s="8"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="8"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
       <c r="B197" s="8"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
       <c r="B198" s="8"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
       <c r="B199" s="8"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="8"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
       <c r="B201" s="8"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
       <c r="B202" s="8"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
       <c r="B203" s="8"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
       <c r="B204" s="8"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
       <c r="B205" s="8"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
       <c r="B206" s="8"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="6"/>
       <c r="B207" s="8"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
       <c r="B208" s="8"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="6"/>
       <c r="B209" s="8"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
       <c r="B210" s="8"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
       <c r="B211" s="8"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="6"/>
       <c r="B212" s="8"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="6"/>
       <c r="B213" s="8"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
       <c r="B214" s="8"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="6"/>
       <c r="B215" s="8"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="6"/>
       <c r="B216" s="8"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="6"/>
       <c r="B217" s="8"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
       <c r="B218" s="8"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
       <c r="B219" s="8"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="6"/>
       <c r="B220" s="8"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="6"/>
       <c r="B221" s="8"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="8"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
       <c r="B223" s="8"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="8"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
       <c r="B225" s="8"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="8"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="8"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="8"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="8"/>
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="8"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="8"/>
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="8"/>
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="B233" s="8"/>
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
       <c r="B234" s="8"/>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
       <c r="B235" s="8"/>
       <c r="C235" s="7"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="6"/>
       <c r="B236" s="8"/>
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="6"/>
       <c r="B237" s="8"/>
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="6"/>
       <c r="B238" s="8"/>
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="6"/>
       <c r="B239" s="8"/>
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="6"/>
       <c r="B240" s="8"/>
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="6"/>
       <c r="B241" s="8"/>
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="6"/>
       <c r="B242" s="8"/>
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="6"/>
       <c r="B243" s="8"/>
       <c r="C243" s="7"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="6"/>
       <c r="B244" s="8"/>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="6"/>
       <c r="B245" s="8"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="6"/>
       <c r="B246" s="8"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="6"/>
       <c r="B247" s="8"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="6"/>
       <c r="B248" s="8"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="6"/>
       <c r="B249" s="8"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="6"/>
       <c r="B250" s="8"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="6"/>
       <c r="B251" s="8"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="6"/>
       <c r="B252" s="8"/>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="6"/>
       <c r="B253" s="8"/>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="6"/>
       <c r="B254" s="8"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="6"/>
       <c r="B255" s="8"/>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="6"/>
       <c r="B256" s="8"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="6"/>
       <c r="B257" s="8"/>
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="6"/>
       <c r="B258" s="8"/>
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="6"/>
       <c r="B259" s="8"/>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="6"/>
       <c r="B260" s="8"/>
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="6"/>
       <c r="B261" s="8"/>
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="6"/>
       <c r="B262" s="8"/>
       <c r="C262" s="7"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="6"/>
       <c r="B263" s="8"/>
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="6"/>
       <c r="B264" s="8"/>
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="6"/>
       <c r="B265" s="8"/>
       <c r="C265" s="7"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="6"/>
       <c r="B266" s="8"/>
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="6"/>
       <c r="B267" s="8"/>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="6"/>
       <c r="B268" s="8"/>
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="6"/>
       <c r="B269" s="8"/>
       <c r="C269" s="7"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="6"/>
       <c r="B270" s="8"/>
       <c r="C270" s="7"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="6"/>
       <c r="B271" s="8"/>
       <c r="C271" s="7"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="6"/>
       <c r="B272" s="8"/>
       <c r="C272" s="7"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="6"/>
       <c r="B273" s="8"/>
       <c r="C273" s="7"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="6"/>
       <c r="B274" s="8"/>
       <c r="C274" s="7"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="6"/>
       <c r="B275" s="8"/>
       <c r="C275" s="7"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="6"/>
       <c r="B276" s="8"/>
       <c r="C276" s="7"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="6"/>
       <c r="B277" s="8"/>
       <c r="C277" s="7"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="6"/>
       <c r="B278" s="8"/>
       <c r="C278" s="7"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="6"/>
       <c r="B279" s="8"/>
       <c r="C279" s="7"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="6"/>
       <c r="B280" s="8"/>
       <c r="C280" s="7"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="6"/>
       <c r="B281" s="8"/>
       <c r="C281" s="7"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="6"/>
       <c r="B282" s="8"/>
       <c r="C282" s="7"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="6"/>
       <c r="B283" s="8"/>
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="6"/>
       <c r="B284" s="8"/>
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="6"/>
       <c r="B285" s="8"/>
       <c r="C285" s="7"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="6"/>
       <c r="B286" s="8"/>
       <c r="C286" s="7"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="6"/>
       <c r="B287" s="8"/>
       <c r="C287" s="7"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="6"/>
       <c r="B288" s="8"/>
       <c r="C288" s="7"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="6"/>
       <c r="B289" s="8"/>
       <c r="C289" s="7"/>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="6"/>
       <c r="B290" s="8"/>
       <c r="C290" s="7"/>
       <c r="D290" s="7"/>
       <c r="E290" s="7"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="6"/>
       <c r="B291" s="8"/>
       <c r="C291" s="7"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="6"/>
       <c r="B292" s="8"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="6"/>
       <c r="B293" s="8"/>
       <c r="C293" s="7"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="6"/>
       <c r="B294" s="8"/>
       <c r="C294" s="7"/>

--- a/LAB Questions.xlsx
+++ b/LAB Questions.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="9036" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Raphael" sheetId="1" r:id="rId1"/>
     <sheet name="Pirmin" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pirmin!$A$3:$E$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pirmin!$A$3:$F$181</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Raphael!$A$3:$E$88</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="322">
   <si>
     <t>Nr.</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Die sog. Critical Sections dienen dazu, dass ein bestimmter Codeabschnitt nie gleichzeitig mit einem anderen bestimmten Codeabschnitt ausgeführt wird. Bei einem langen Stück Code braucht es zu lange bis der nächste Codeabschnitt ausgeführt werden kann.</t>
-  </si>
-  <si>
-    <t>script page 118?</t>
   </si>
   <si>
     <t>CriticalVariable() is a macro who declares and defines a local variable to store the current interrupt state.</t>
@@ -822,12 +819,385 @@
     <t>What is the advantage and/or disadvantage of a hierarchical initializa-
 tion approach?</t>
   </si>
+  <si>
+    <t>Recap VCS</t>
+  </si>
+  <si>
+    <t>Which problems does a good VCS solve?</t>
+  </si>
+  <si>
+    <t>What are three important rules using a VCS?</t>
+  </si>
+  <si>
+    <t>What is the purpose of the .gitignore file</t>
+  </si>
+  <si>
+    <t>Explain what the remote repository, the local repository and the working directory are and how they relate.</t>
+  </si>
+  <si>
+    <t>Explain what master, branch and merging is and how these things relate.</t>
+  </si>
+  <si>
+    <t>make small steps that means often commit, write good comments and resolve carefully the conflicts</t>
+  </si>
+  <si>
+    <t>OK?</t>
+  </si>
+  <si>
+    <t>multiple developers can work on a project, it's possible to jump back or forth in the history. Deals with synchronization and backup.</t>
+  </si>
+  <si>
+    <t>we don't need to push the whole project. This needs a lot of time. In this .txt file you can define which files not to share with git.</t>
+  </si>
+  <si>
+    <t>Remote Repository: acutal project on the server. Local Repository is a copy of the server. Working directory: Where you actually work on and change things.</t>
+  </si>
+  <si>
+    <t>master is the main project. If you decide to implement or test a new feature you can split a branch of the master and work independent from the master. Then if you decide to merge this branch back to the master you can "merge" and integrate the code in the main project.</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>What kind of different Embedded Systems do we know?</t>
+  </si>
+  <si>
+    <t>Recap Systems and Realtime</t>
+  </si>
+  <si>
+    <t>Give an example for each system.</t>
+  </si>
+  <si>
+    <t>What requierments does a Realtime System has to fulfill?</t>
+  </si>
+  <si>
+    <t>transforming (input filestream -&gt; system output filestream), reactive (control -&gt;, measure &lt;-), interactive(input from a "person", output to a "person")</t>
+  </si>
+  <si>
+    <t>transforming: Radio, reactive: an electronical system in the car (ESD), interactive: cruise control</t>
+  </si>
+  <si>
+    <t>externe Zeitbedingung einhalten!</t>
+  </si>
+  <si>
+    <t>corectness (bring out the corrrect result), extern time conditions compliance</t>
+  </si>
+  <si>
+    <t>Recap PE and Project Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why use Processor Expert?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What are the advantages and disadventages of linked folders?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you think of a different solution to share code / system blocks?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name three components you can add with processor expert.
+</t>
+  </si>
+  <si>
+    <t>LED, FreeRTOS, Wait, BitIO, Shell, …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">library </t>
+  </si>
+  <si>
+    <t>reusable code, similar hardware used in the different systems. In platform.h common project configuration. In platform_local.h are the difference set. YOU HAVE TO TELL ECLIPLSE WHERE TO FIND THE FOLDER</t>
+  </si>
+  <si>
+    <t>hardware abstraction, that means components can be configured. Then it's a object oriented approach: methods or processes can be executed RAPID application tool, saving a lot of time when using this components instead of writting one yourself</t>
+  </si>
+  <si>
+    <t>Why do we need macros?</t>
+  </si>
+  <si>
+    <t>What is a header and source file? What should be considered when using those two files?</t>
+  </si>
+  <si>
+    <t>What should you mind, when you use the I/O pin for multiple LED’s?</t>
+  </si>
+  <si>
+    <t>Recap Preprocessor, includes LED</t>
+  </si>
+  <si>
+    <t>information to the compiler, proprocess information before compilation, better understanding for reading and implementing code. Names instead of numbers, better configuration, portability and optimization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the source file is the implementation and definition and ist includes the interface which are used for the implementation, in the header file is only included what is needed and external declaration. </t>
+  </si>
+  <si>
+    <t>if you use the same I/O pin as input/ouput attention not to create a short cut. Not exceeding the current budget of your MC. It doesn't matter which side you connect to the MC pin. Just set the ouput to logical H or L</t>
+  </si>
+  <si>
+    <t>What are the 3 possible States of a Task?</t>
+  </si>
+  <si>
+    <t>What is a main difference in using semaphore or mutex?</t>
+  </si>
+  <si>
+    <t>What does Priority Inheritance mean?</t>
+  </si>
+  <si>
+    <t>Recap RTOS</t>
+  </si>
+  <si>
+    <t>Ready, Running, Blocked</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if you use mutex and a task need something of the shared resource, the resource is locked for ther tasks until ist given back.  A semaphore is used to notify a task by giving the semaphore to another task which is pending for it. -&gt; no giving back is required. </t>
+  </si>
+  <si>
+    <t>if a higher prio task needs a resource which is already locked by a lower prio task, the lower prio task is temporarely elevated to reach the same prio because this "original lower task" get done and unlock the resource for the original higher prio.</t>
+  </si>
+  <si>
+    <t>Recap ARM Cortex and Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which ARM processors are used for…?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM Cortex allowed 32 bit hardware multiply synthesized by one or 32 cycles. What’s the different?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is important to consider if you add and define a new event? 
+</t>
+  </si>
+  <si>
+    <t>Why do you have to make the event methods reentrant (critical section)?</t>
+  </si>
+  <si>
+    <t>Robot: M4F, Remote: M4, Freescale Board M0+</t>
+  </si>
+  <si>
+    <t>M4: (only hardware multiply synthesized with one cycle) needs more chip area but it's faster. (recommended!) M0: (1 or 32 cycles) 32 cycles saves place on the chip area but it`s slower.</t>
+  </si>
+  <si>
+    <t>A new Event has to be above EVNT_NOF_EVENTS, because this statement is always the last one!</t>
+  </si>
+  <si>
+    <t>Because the ISR (Interrupt Subroutine) and the main loop have access to the Event Array. -&gt; avoid conflicts</t>
+  </si>
+  <si>
+    <t>Y=0xEA, bitshifting 16 to right</t>
+  </si>
+  <si>
+    <t>0x10, 0x20, 0x40, 0x60, 0x80, 0xA0, 0xC0 (16,32, 64, …)</t>
+  </si>
+  <si>
+    <t>int x; x = int add(int a, int b); return x;</t>
+  </si>
+  <si>
+    <t>PORTA xor 100000; solution: PORTA xor 1&lt;&lt;5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDAA #5 // Load the number 5 from accumulator; STAA i // store accumulator in i; INCA // erhöhe 5 um 1; MULA i // multiplziere i (5) * (5+1) = 30 </t>
+  </si>
+  <si>
+    <t>it's easier for VCS. If you have a huge amount of files in the workspace it needs a few seconds for committing. I don`t want my workspace on git. So I have all the different projects on my workspace but not on git.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmierschnittstelle (Jtag or Debuginterface) mit Tlk clock, Tdi, Tdo,(data) Tms, reset,...) vom MC von TinyK20. TinyK20 übernimmt die Debugfunktion und Programmerfunktion. (Auf dem Freedom </t>
+  </si>
+  <si>
+    <t>What is the effect/impact of using the 'parallel build' option?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If i create a debug configuration for a project, then eclipse stores default in the workspace data. This means that the debug configuration is not stored in the project settings. If you now use a VCS, the debug configuration is not shared. if it`s enabled, debug (or launch) configuration gets stroed in a file inside the project. </t>
+  </si>
+  <si>
+    <t>A reduction in build time. (twice as fast) Take attention, if you have a lot of errors in your project, then disable it. Otherwise it will interleave (verschachteln) the error messages and thats confusing.</t>
+  </si>
+  <si>
+    <t>we don`t want to commit everytime the whole project. So in this .gitIgnore file are defined files which you should not share: GereratedCode, Debug file, Documentation, .settings,…</t>
+  </si>
+  <si>
+    <t>same question as 5.1</t>
+  </si>
+  <si>
+    <t>same question as 4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm not sure but every VCS have their advantage and disadvantage. So it makes sense the best one to choose! The other argument is, it could avoid a mess with different repositories. </t>
+  </si>
+  <si>
+    <t>If I have two clients and then on one i make some changes and then commit/push. The same time I work on the other clients and make some changes without pull before. -&gt; conflict!</t>
+  </si>
+  <si>
+    <t>just for using git you don`t need a server. You can make changes, commit and push on your local repository. If you want to share this with a partner you need a server.</t>
+  </si>
+  <si>
+    <t>What is the difference between Clone and Pull?</t>
+  </si>
+  <si>
+    <t>What is the difference between Stage and Push?</t>
+  </si>
+  <si>
+    <t>clone: how you get a local copy of an existing repository (ususally only used once) pull: is how to update that local copy with new commits from the remote repository.</t>
+  </si>
+  <si>
+    <t>first I have the possibility to stage choosed files and then to commit to the local repository. At the end I will puh it from local respository to remote repository. Why is it on the graphic different with stage?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because it`s your personal repository. You have to invite and the collaborators have go sign up for GitHub. </t>
+  </si>
+  <si>
+    <t>Exporting and maintaining the Processor Expert Update Files (*.PEupd) one by one is a lot of effort. GitHub makes things a lot easier</t>
+  </si>
+  <si>
+    <t>bitIO is on a lower level. Led component inherit from the BitIo component. BitIO has the opportunity to choose the direction (input, output, input/output). Led component implements cathode and anode settings</t>
+  </si>
+  <si>
+    <t>pros ( can create my own components, free license, very powerful, ability to turn on/off functions to optimize the code, small and tight code, easy and simple way to have an driver)  cons ( not easy to leran, takes a lot of experience, can`t sell components, code sometimes not ideal and not very well documented, still need to understand how the hardware works)</t>
+  </si>
+  <si>
+    <t>no idea!</t>
+  </si>
+  <si>
+    <t>It`s easier for another developer or collaborator on a project. It`s like a definition.</t>
+  </si>
+  <si>
+    <t>PL_CONFIG_BOARD_IS_ROBO, Robo and Remote can use the shared resources. For example the LED implementation, but we have different number of LED on the board. This is the reason why we need to know which board to use. I thnik i could be avoided, if less information is in the platform.h, but more specific in the platform_local.h. The disadvantage of this is, code dupplication.</t>
+  </si>
+  <si>
+    <t>Because Processor Expert stores everything in a single XML file and every change in the Processor Expert settings will cause a change which is very likely causing a conflict. That means i need like to lock or unlock if I want to do changes. -&gt; in small teams, only one person is changing things in Processor Expert</t>
+  </si>
+  <si>
+    <t>When changing the .pe  file outside of Eclipse (e.g. with a  file explorer), you should have the project closed in Eclipse  first to avoid inconsistent files. 
+Why would this apply as well if you are pulling new .pe  files with
+a Git client?</t>
+  </si>
+  <si>
+    <t>In case there ar problems with the C/C++ preprocessor, it is usefull to generate the compiler preprocessor listing. For that, turn on the E-option (Preprocess only). That option will direct the compiler to do preprocessing only and to stop after that. At the end remove the -E option and make a project clean to build the project as usual.</t>
+  </si>
+  <si>
+    <t>see question 8.1</t>
+  </si>
+  <si>
+    <t>Make shure that the file for which you need the preprocessing is compiled -&gt; make a rebuild. This will just do the proprocessing and produce the preprocessing listing files. Because no object files are generated, linking will fail!!</t>
+  </si>
+  <si>
+    <t>No. See graphical. If enable -E, compiler does not produce object files!</t>
+  </si>
+  <si>
+    <t>*.o are preprocesssor output (textfiles), in case you have problems with the C/C++ preprocessor it is usefull to generatoe the compiler preprocessor listing.</t>
+  </si>
+  <si>
+    <t>To bild the project as usual?</t>
+  </si>
+  <si>
+    <t>Init() does allocate the memory, data structure etc. Deinit() frees the memory, reset to default!</t>
+  </si>
+  <si>
+    <t>Easier to understand! Sometimes wee need a zero for enable a component. (e.g. LED, check how it is connected -&gt; flexible anode/cathode)</t>
+  </si>
+  <si>
+    <t>to lock the device and get device handle and to free device and return the device handle.</t>
+  </si>
+  <si>
+    <t>Interface for every LED. Check the datasheet and the schematic. See if a LED-high turning on or off is.</t>
+  </si>
+  <si>
+    <t>Pin Signal properties in Processor, in kinetis no answer found! I think it could have something to do if anode or cathode pin on MC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED`s masks defined as symbols, easier to disable if not needed. </t>
+  </si>
+  <si>
+    <t>never hard about that!</t>
+  </si>
+  <si>
+    <t>I would say realtime or gadfly. Whats the better answer?</t>
+  </si>
+  <si>
+    <t>Realtime: Low, ?, medium; Gadflay: Medium/High, ?, low; Interrupt: Low, low, high</t>
+  </si>
+  <si>
+    <t>estern volatile int ISR_FLAG; volatile bedeutet, dass sich der Wert der Variable jederzeit durch Prozesse Threads und externe HW änder kann. (forces code to reload value)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In my opinion no! An interrupt service routine has no shared resources which should be protected. taskENTER_CRITICAL() and taskEXIT_CRITICAL() must not be called from an interrupt service routine (ISR) - see taskENTER_CRITICAL_FROM_ISR() and taskEXIT_CRITICAL_FROM_ISR() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes. If you are nesting critical sections, make sure every instance has ist own critical section VARIABLE. </t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>A comma-separated list of registers or other values changed by the AssemblerTemplate, beyond those listed as outputs. An empty list is permitted. While the compiler is aware of changes to entries listed in the output operands, the inline asm code may modify more than just the outputs. For example, calculations may require additional registers, or the processor may overwrite a register as a side effect of a particular assembler instruction. In order to inform the compiler of these changes, list them in the clobber list. Clobber list items are either register names or the special clobbers (listed below). Each clobber list item is a string constant enclosed in double quotes and separated by commas.</t>
+  </si>
+  <si>
+    <t>BusFault ( Instruction/data error), MemoryFault(Write to Read only, outside of memory heap), UsageFault(invalid ISR return, illegal instruction)</t>
+  </si>
+  <si>
+    <t>No, it`s not possible! Hard faoult has the prio -1 and is a NMI</t>
+  </si>
+  <si>
+    <t>Yes. A NULL function pointer call will easily cause such a hard fault.
+void (f*)(void);
+void cause_hard_fault(void) {
+  f(); /* will cause a hard fault, as the function pointer is NULL */
+}</t>
+  </si>
+  <si>
+    <t>priority -1, Generated_Code_Vectors.c</t>
+  </si>
+  <si>
+    <t>NMI (Non maskable Interrupt) has the priority -2 and is higher!</t>
+  </si>
+  <si>
+    <t>8bit priority register; M0+: 32 user interrupts; M4: 82 user interrupts</t>
+  </si>
+  <si>
+    <t>purpose of EVNT_NOF_EVENTS: we can check if an event is listed in the array/queue/list and it`s also for the size of the array. If you add new events to the e.g. array, the EVNT_NOF_EVENTS must be the last one of the enum or #define.</t>
+  </si>
+  <si>
+    <t>in the slide #13 is used EVNT_EventIsSet(), EVNT_ClearEvent()</t>
+  </si>
+  <si>
+    <t>Think about different ways to verify that your system is running at a bus clock speed you have configured. How could you test it?</t>
+  </si>
+  <si>
+    <t>static uint16_t ? Static unit8_8 EVNT_Events[((EVNT_NOF_EVENTS-1)/8)+1];  für enum: typedef uint16_t EVNT_Handle… nun können viel mehr Events supportet werden</t>
+  </si>
+  <si>
+    <t>Handle Event: need to protect against concurrent access</t>
+  </si>
+  <si>
+    <t>siehe Buch Bibliothek</t>
+  </si>
+  <si>
+    <t>There are two defines: PORT_PDD_PULL_DOWN and PORT_PDD_PULLUP :                                                                                         /* enable and turn on pull-up resistor for PTA14 */
+  PORT_PDD_SetPinPullSelect(PORTA_BASE_PTR, 14, PORT_PDD_PULL_UP);</t>
+  </si>
+  <si>
+    <t>If "blocking send" enabled, then sending using SendChar() to the communication channel will block until success. With "Wait Time ms) we can define the time in milli seconds if sending was blocked</t>
+  </si>
+  <si>
+    <t>It`s a structure with callbacks (byte by byte, character by character) can be re-assigned (neu zuweisen), re-routing/logging/piping</t>
+  </si>
+  <si>
+    <t>The Utility strcpy() does NOT cause buffer overflow, buffers always zero byte terminated.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,8 +1213,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -860,6 +1236,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,7 +1273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -916,6 +1298,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -986,18 +1383,62 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3886199</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>571499</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2534286</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4029074</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>4010026</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1038225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E67D04F-CC21-4D20-AE37-9D9A591DF1B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077836" y="18288000"/>
+          <a:ext cx="1475740" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>668111</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>572589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3570515</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>2204608</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1013,15 +1454,59 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5333999" y="16754474"/>
-          <a:ext cx="4029075" cy="2333625"/>
+          <a:off x="6219825" y="24357875"/>
+          <a:ext cx="2902404" cy="1632019"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>130628</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>190663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4028603</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>3667496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A642641-FC99-4954-90CE-4510D8A78E96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5682342" y="38051177"/>
+          <a:ext cx="3897975" cy="3476833"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1332,9 +1817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C166" sqref="C166"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1348,7 +1833,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -1364,13 +1849,13 @@
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>1</v>
@@ -1381,566 +1866,566 @@
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="8">
         <v>2.1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="8">
         <v>2.2000000000000002</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="8">
         <v>2.2999999999999998</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="8">
         <v>2.4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8">
         <v>2.5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="8">
         <v>4.0999999999999996</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="8">
         <v>4.3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="8">
         <v>4.4000000000000004</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="8">
         <v>4.5</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="8">
         <v>5.0999999999999996</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="8">
         <v>5.2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="8">
         <v>5.3</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="8">
         <v>5.4</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="8">
         <v>5.5</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="8">
         <v>5.6</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="8">
         <v>5.7</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="8">
         <v>5.8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="8">
         <v>5.9</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="8">
         <v>6.1</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="8">
         <v>6.2</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="8">
         <v>6.3</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="8">
         <v>6.4</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="8">
         <v>6.5</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="8">
         <v>7.1</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="8">
         <v>7.2</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="8">
         <v>7.3</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="8">
         <v>8.1</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="8">
         <v>8.1999999999999993</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="8">
         <v>8.3000000000000007</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="8">
         <v>8.4</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="8">
         <v>8.5</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="8">
         <v>8.6</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="8">
         <v>9.1</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="8">
         <v>9.1999999999999993</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="8">
         <v>9.3000000000000007</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="8">
         <v>9.4</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="8">
         <v>9.5</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" s="8">
         <v>9.6</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="8">
         <v>9.6999999999999993</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="8">
         <v>9.8000000000000007</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" s="8">
         <v>10.1</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="8">
         <v>10.199999999999999</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="8">
         <v>10.3</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" s="8">
         <v>11.1</v>
@@ -1953,46 +2438,46 @@
     </row>
     <row r="48" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48" s="8">
         <v>11.2</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" s="8">
         <v>11.3</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="8">
         <v>11.4</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" s="8">
         <v>11.5</v>
@@ -2005,20 +2490,20 @@
     </row>
     <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52" s="8">
         <v>11.6</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" s="8">
         <v>11.7</v>
@@ -2031,1533 +2516,1665 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="8">
         <v>12.1</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="8">
         <v>12.2</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="8">
         <v>12.3</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="8">
         <v>12.4</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="8">
         <v>12.5</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" s="8">
         <v>12.6</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
     </row>
     <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="8">
         <v>12.7</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B61" s="8">
         <v>13.1</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="8">
         <v>13.2</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" s="8">
         <v>13.3</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
     </row>
     <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64" s="8">
         <v>13.4</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B65" s="8">
         <v>13.5</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
     </row>
     <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" s="8">
         <v>13.6</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67" s="8">
         <v>13.7</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
     </row>
     <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" s="8">
         <v>13.8</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B69" s="8">
         <v>14.1</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
     </row>
     <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B70" s="8">
         <v>14.2</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
     <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B71" s="8">
         <v>14.3</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
     </row>
     <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B72" s="8">
         <v>14.4</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
     </row>
     <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B73" s="8">
         <v>15.1</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
     </row>
     <row r="74" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B74" s="8">
         <v>15.2</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B75" s="8">
         <v>16.100000000000001</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B76" s="8">
         <v>16.2</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77" s="8">
         <v>16.3</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B78" s="8">
         <v>16.399999999999999</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B79" s="8">
         <v>17.100000000000001</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B80" s="8">
         <v>17.2</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B81" s="8">
         <v>17.3</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B82" s="8">
         <v>17.399999999999999</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B83" s="8">
         <v>17.5</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B84" s="8">
         <v>18.100000000000001</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B85" s="8">
         <v>18.2</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B86" s="8">
         <v>18.3</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B87" s="8">
         <v>18.399999999999999</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B88" s="8">
         <v>18.5</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B89" s="8">
         <v>19.100000000000001</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B90" s="8">
         <v>19.2</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B91" s="8">
         <v>19.3</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B92" s="8">
         <v>19.399999999999999</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B93" s="8">
         <v>19.5</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B94" s="8">
         <v>20.100000000000001</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B95" s="8">
         <v>20.2</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B96" s="8">
         <v>20.3</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B97" s="8">
         <v>21.1</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B98" s="8">
         <v>21.2</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
     </row>
     <row r="99" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B99" s="8">
         <v>22.1</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
     </row>
     <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B100" s="8">
         <v>22.2</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
     <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B101" s="8">
         <v>22.3</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B102" s="8">
         <v>22.4</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B103" s="8">
         <v>22.5</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
     </row>
     <row r="104" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B104" s="8">
         <v>22.6</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B105" s="8">
         <v>23.1</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
     </row>
     <row r="106" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B106" s="8">
         <v>23.2</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B107" s="8">
         <v>23.3</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
     </row>
     <row r="108" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B108" s="8">
         <v>23.4</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B109" s="8">
         <v>23.5</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
     </row>
     <row r="110" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B110" s="8">
         <v>23.6</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
     </row>
     <row r="111" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B111" s="8">
         <v>24.1</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
     </row>
     <row r="112" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B112" s="8">
         <v>24.2</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
     </row>
     <row r="113" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B113" s="8">
         <v>24.3</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
     </row>
     <row r="114" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B114" s="8">
         <v>25.1</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
     </row>
     <row r="115" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B115" s="8">
         <v>25.2</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
     </row>
     <row r="116" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B116" s="8">
         <v>25.3</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
     </row>
     <row r="117" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B117" s="8">
         <v>25.4</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B118" s="8">
         <v>25.5</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B119" s="8">
         <v>25.6</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B120" s="8">
         <v>25.7</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
     </row>
     <row r="121" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B121" s="8">
         <v>25.8</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
     </row>
     <row r="122" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B122" s="8">
         <v>26.1</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
     </row>
     <row r="123" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B123" s="8">
         <v>27.1</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
     </row>
     <row r="124" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B124" s="8">
         <v>27.2</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
     </row>
     <row r="125" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B125" s="8">
         <v>27.3</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
     </row>
     <row r="126" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B126" s="8">
         <v>27.4</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
     </row>
     <row r="127" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B127" s="8">
         <v>27.5</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
     </row>
     <row r="128" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B128" s="8">
         <v>27.6</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
     </row>
     <row r="129" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B129" s="8">
         <v>27.7</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
     </row>
     <row r="130" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B130" s="8">
         <v>27.8</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
     </row>
     <row r="131" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B131" s="8">
         <v>28.1</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
     </row>
     <row r="132" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B132" s="8">
         <v>28.2</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
     </row>
     <row r="133" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B133" s="8">
         <v>29.1</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
     </row>
     <row r="134" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B134" s="8">
         <v>29.2</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B135" s="8">
         <v>30.1</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
     </row>
     <row r="136" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B136" s="8">
         <v>30.2</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
     </row>
     <row r="137" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B137" s="8">
         <v>30.3</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
     </row>
     <row r="138" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B138" s="8">
         <v>30.4</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
     </row>
     <row r="139" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B139" s="8">
         <v>30.5</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
     </row>
     <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B140" s="8">
         <v>30.6</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
     </row>
     <row r="141" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B141" s="8">
         <v>30.7</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B142" s="8">
         <v>31.1</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
     </row>
     <row r="143" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B143" s="8">
         <v>31.2</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
     </row>
     <row r="144" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B144" s="8">
         <v>32.1</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
     </row>
     <row r="145" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B145" s="8">
         <v>32.200000000000003</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
     </row>
     <row r="146" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B146" s="8">
         <v>32.299999999999997</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B147" s="8">
         <v>32.4</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
     </row>
     <row r="148" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B148" s="8">
         <v>33.1</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B149" s="8">
         <v>33.200000000000003</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
     </row>
     <row r="150" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B150" s="8">
         <v>33.299999999999997</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
     </row>
     <row r="151" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B151" s="8">
         <v>33.4</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B152" s="8">
         <v>33.5</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
     </row>
     <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B153" s="8">
         <v>33.6</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B154" s="8">
         <v>34.1</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
     </row>
     <row r="155" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B155" s="8">
         <v>34.200000000000003</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
     </row>
     <row r="156" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B156" s="8">
         <v>35.1</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B157" s="8">
         <v>35.200000000000003</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
     </row>
     <row r="158" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B158" s="8">
         <v>36.1</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B159" s="8">
         <v>36.200000000000003</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="6"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="7"/>
+      <c r="A160" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B160" s="8">
+        <v>1</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="6"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="7"/>
+      <c r="A161" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B161" s="8">
+        <v>2</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="6"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="7"/>
+      <c r="A162" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B162" s="8">
+        <v>3</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="6"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="7"/>
+    <row r="163" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A163" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B163" s="8">
+        <v>4</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="6"/>
-      <c r="B164" s="8"/>
-      <c r="C164" s="7"/>
+    <row r="164" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A164" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B164" s="8">
+        <v>5</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>207</v>
+      </c>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="6"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="7"/>
+    <row r="165" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A165" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B165" s="8">
+        <v>1</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="6"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="7"/>
+    <row r="166" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A166" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B166" s="8">
+        <v>2</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="6"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="7"/>
+    <row r="167" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B167" s="8">
+        <v>3</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="6"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="7"/>
+    <row r="168" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A168" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B168" s="8">
+        <v>1</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>225</v>
+      </c>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="6"/>
-      <c r="B169" s="8"/>
-      <c r="C169" s="7"/>
+    <row r="169" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A169" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B169" s="8">
+        <v>2</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>226</v>
+      </c>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="6"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="7"/>
+    <row r="170" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A170" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B170" s="8">
+        <v>3</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>227</v>
+      </c>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="6"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="7"/>
+    <row r="171" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A171" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B171" s="8">
+        <v>4</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>228</v>
+      </c>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="6"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="7"/>
+    <row r="172" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A172" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B172" s="8">
+        <v>1</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>233</v>
+      </c>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="6"/>
-      <c r="B173" s="8"/>
-      <c r="C173" s="7"/>
+    <row r="173" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A173" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B173" s="8">
+        <v>2</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>234</v>
+      </c>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="6"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="7"/>
+    <row r="174" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A174" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B174" s="8">
+        <v>3</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="6"/>
-      <c r="B175" s="8"/>
-      <c r="C175" s="7"/>
+      <c r="A175" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B175" s="8">
+        <v>1</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="6"/>
-      <c r="B176" s="8"/>
-      <c r="C176" s="7"/>
+      <c r="A176" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B176" s="8">
+        <v>2</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="6"/>
-      <c r="B177" s="8"/>
-      <c r="C177" s="7"/>
+      <c r="A177" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B177" s="8">
+        <v>3</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>242</v>
+      </c>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="6"/>
-      <c r="B178" s="8"/>
-      <c r="C178" s="7"/>
+    <row r="178" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A178" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B178" s="8">
+        <v>1</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="6"/>
-      <c r="B179" s="8"/>
-      <c r="C179" s="7"/>
+    <row r="179" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A179" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B179" s="8">
+        <v>2</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>250</v>
+      </c>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="6"/>
-      <c r="B180" s="8"/>
-      <c r="C180" s="7"/>
+    <row r="180" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A180" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B180" s="8">
+        <v>3</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>251</v>
+      </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="6"/>
-      <c r="B181" s="8"/>
-      <c r="C181" s="7"/>
+    <row r="181" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A181" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B181" s="8">
+        <v>4</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>252</v>
+      </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
     </row>
@@ -4362,11 +4979,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E294"/>
+  <dimension ref="A1:F294"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89:C159"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4376,33 +4993,36 @@
     <col min="3" max="3" width="58.33203125" customWidth="1"/>
     <col min="4" max="4" width="60.44140625" customWidth="1"/>
     <col min="5" max="5" width="54.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>2</v>
@@ -4410,569 +5030,683 @@
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="8">
         <v>2.1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>257</v>
+      </c>
       <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F4" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="8">
         <v>2.2000000000000002</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>258</v>
+      </c>
       <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="8">
         <v>2.2999999999999998</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="8">
         <v>2.4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>260</v>
+      </c>
       <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="F7" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8">
         <v>2.5</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="B9" s="8">
         <v>4.0999999999999996</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F9" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="8">
         <v>4.3</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="8">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="8">
         <v>4.5</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="B13" s="8">
         <v>5.0999999999999996</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="8">
         <v>5.2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>268</v>
+      </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="8">
         <v>5.3</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="8">
         <v>5.4</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>270</v>
+      </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="8">
         <v>5.5</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>271</v>
+      </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="8">
         <v>5.6</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>272</v>
+      </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="8">
         <v>5.7</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="7"/>
+        <v>273</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>275</v>
+      </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="8">
         <v>5.8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>274</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>276</v>
+      </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="8">
         <v>5.9</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>277</v>
+      </c>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="8">
         <v>6.1</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>278</v>
+      </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="8">
         <v>6.2</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="8">
         <v>6.3</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>280</v>
+      </c>
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="8">
         <v>6.4</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>281</v>
+      </c>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="8">
         <v>6.5</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="B27" s="8">
         <v>7.1</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>283</v>
+      </c>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="8">
         <v>7.2</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>284</v>
+      </c>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="8">
         <v>7.3</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="B30" s="8">
         <v>8.1</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>286</v>
+      </c>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="8">
         <v>8.1999999999999993</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="8">
         <v>8.3000000000000007</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>288</v>
+      </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="8">
         <v>8.4</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>289</v>
+      </c>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="8">
         <v>8.5</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>290</v>
+      </c>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="8">
         <v>8.6</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>291</v>
+      </c>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="8">
         <v>9.1</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>293</v>
+      </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="8">
         <v>9.1999999999999993</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>292</v>
+      </c>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="8">
         <v>9.3000000000000007</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>294</v>
+      </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="8">
         <v>9.4</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="D39" s="15"/>
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="8">
         <v>9.5</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>295</v>
+      </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" s="8">
         <v>9.6</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>296</v>
+      </c>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="8">
         <v>9.6999999999999993</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>297</v>
+      </c>
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="8">
         <v>9.8000000000000007</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="B44" s="8">
         <v>10.1</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>299</v>
+      </c>
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="8">
         <v>10.199999999999999</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="8">
         <v>10.3</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>301</v>
+      </c>
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" s="8">
         <v>11.1</v>
@@ -4987,52 +5721,54 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48" s="8">
         <v>11.2</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" s="8">
         <v>11.3</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>10</v>
+        <v>302</v>
       </c>
       <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="8">
         <v>11.4</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>303</v>
+      </c>
       <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" s="8">
         <v>11.5</v>
@@ -5041,26 +5777,28 @@
         <v>4</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52" s="8">
         <v>11.6</v>
       </c>
       <c r="C52" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="B53" s="8">
         <v>11.7</v>
@@ -5068,1539 +5806,1803 @@
       <c r="C53" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="8">
         <v>12.1</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>306</v>
+      </c>
       <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="8">
         <v>12.2</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="8">
         <v>12.3</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="8">
         <v>12.4</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D57" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="D57" s="15"/>
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="8">
         <v>12.5</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>309</v>
+      </c>
       <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" s="8">
         <v>12.6</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>310</v>
+      </c>
       <c r="E59" s="7"/>
     </row>
     <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="8">
         <v>12.7</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="B61" s="8">
         <v>13.1</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="8">
         <v>13.2</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" s="8">
         <v>13.3</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>315</v>
+      </c>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="308.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64" s="8">
         <v>13.4</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B65" s="8">
         <v>13.5</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>281</v>
+      </c>
       <c r="E65" s="7"/>
     </row>
     <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" s="8">
         <v>13.6</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D66" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>281</v>
+      </c>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67" s="8">
         <v>13.7</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="E67" s="7"/>
     </row>
     <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" s="8">
         <v>13.8</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>317</v>
+      </c>
       <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B69" s="8">
         <v>14.1</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>88</v>
+        <v>314</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
     </row>
     <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B70" s="8">
         <v>14.2</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
     <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B71" s="8">
         <v>14.3</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
     </row>
     <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B72" s="8">
         <v>14.4</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B73" s="8">
         <v>15.1</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D73" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="E73" s="7"/>
     </row>
     <row r="74" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B74" s="8">
         <v>15.2</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D74" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>281</v>
+      </c>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B75" s="8">
         <v>16.100000000000001</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>319</v>
+      </c>
       <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B76" s="8">
         <v>16.2</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D76" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77" s="8">
         <v>16.3</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D77" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B78" s="8">
         <v>16.399999999999999</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D78" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="D78" s="15"/>
       <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B79" s="8">
         <v>17.100000000000001</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B80" s="8">
         <v>17.2</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B81" s="8">
         <v>17.3</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B82" s="8">
         <v>17.399999999999999</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B83" s="8">
         <v>17.5</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B84" s="8">
         <v>18.100000000000001</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B85" s="8">
         <v>18.2</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B86" s="8">
         <v>18.3</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B87" s="8">
         <v>18.399999999999999</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B88" s="8">
         <v>18.5</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B89" s="8">
         <v>19.100000000000001</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B90" s="8">
         <v>19.2</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B91" s="8">
         <v>19.3</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B92" s="8">
         <v>19.399999999999999</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B93" s="8">
         <v>19.5</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B94" s="8">
         <v>20.100000000000001</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B95" s="8">
         <v>20.2</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B96" s="8">
         <v>20.3</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B97" s="8">
         <v>21.1</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B98" s="8">
         <v>21.2</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
     </row>
     <row r="99" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B99" s="8">
         <v>22.1</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
     </row>
     <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B100" s="8">
         <v>22.2</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
     <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B101" s="8">
         <v>22.3</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B102" s="8">
         <v>22.4</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B103" s="8">
         <v>22.5</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
     </row>
     <row r="104" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B104" s="8">
         <v>22.6</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B105" s="8">
         <v>23.1</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
     </row>
     <row r="106" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B106" s="8">
         <v>23.2</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B107" s="8">
         <v>23.3</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
     </row>
     <row r="108" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B108" s="8">
         <v>23.4</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B109" s="8">
         <v>23.5</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
     </row>
     <row r="110" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B110" s="8">
         <v>23.6</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
     </row>
     <row r="111" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B111" s="8">
         <v>24.1</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
     </row>
     <row r="112" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B112" s="8">
         <v>24.2</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
     </row>
     <row r="113" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B113" s="8">
         <v>24.3</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
     </row>
     <row r="114" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B114" s="8">
         <v>25.1</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
     </row>
     <row r="115" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B115" s="8">
         <v>25.2</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
     </row>
     <row r="116" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B116" s="8">
         <v>25.3</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
     </row>
     <row r="117" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B117" s="8">
         <v>25.4</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B118" s="8">
         <v>25.5</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B119" s="8">
         <v>25.6</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B120" s="8">
         <v>25.7</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
     </row>
     <row r="121" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B121" s="8">
         <v>25.8</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
     </row>
     <row r="122" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B122" s="8">
         <v>26.1</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
     </row>
     <row r="123" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B123" s="8">
         <v>27.1</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
     </row>
     <row r="124" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B124" s="8">
         <v>27.2</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
     </row>
     <row r="125" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B125" s="8">
         <v>27.3</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
     </row>
     <row r="126" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B126" s="8">
         <v>27.4</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
     </row>
     <row r="127" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B127" s="8">
         <v>27.5</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
     </row>
     <row r="128" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B128" s="8">
         <v>27.6</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
     </row>
     <row r="129" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B129" s="8">
         <v>27.7</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
     </row>
     <row r="130" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B130" s="8">
         <v>27.8</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
     </row>
     <row r="131" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B131" s="8">
         <v>28.1</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
     </row>
     <row r="132" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B132" s="8">
         <v>28.2</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
     </row>
     <row r="133" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B133" s="8">
         <v>29.1</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
     </row>
     <row r="134" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B134" s="8">
         <v>29.2</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B135" s="8">
         <v>30.1</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
     </row>
     <row r="136" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B136" s="8">
         <v>30.2</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
     </row>
     <row r="137" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B137" s="8">
         <v>30.3</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
     </row>
     <row r="138" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B138" s="8">
         <v>30.4</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
     </row>
     <row r="139" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B139" s="8">
         <v>30.5</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
     </row>
     <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B140" s="8">
         <v>30.6</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
     </row>
     <row r="141" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B141" s="8">
         <v>30.7</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B142" s="8">
         <v>31.1</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
     </row>
     <row r="143" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B143" s="8">
         <v>31.2</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
     </row>
     <row r="144" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B144" s="8">
         <v>32.1</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B145" s="8">
         <v>32.200000000000003</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B146" s="8">
         <v>32.299999999999997</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B147" s="8">
         <v>32.4</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
     </row>
-    <row r="148" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B148" s="8">
         <v>33.1</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
     </row>
-    <row r="149" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B149" s="8">
         <v>33.200000000000003</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
     </row>
-    <row r="150" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B150" s="8">
         <v>33.299999999999997</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B151" s="8">
         <v>33.4</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B152" s="8">
         <v>33.5</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
     </row>
-    <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B153" s="8">
         <v>33.6</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B154" s="8">
         <v>34.1</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B155" s="8">
         <v>34.200000000000003</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
     </row>
-    <row r="156" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B156" s="8">
         <v>35.1</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B157" s="8">
         <v>35.200000000000003</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
     </row>
-    <row r="158" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B158" s="8">
         <v>36.1</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
     </row>
-    <row r="159" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B159" s="8">
         <v>36.200000000000003</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="6"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
+    <row r="160" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A160" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B160" s="8">
+        <v>1</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="E160" s="7"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="6"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
+      <c r="F160" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A161" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B161" s="8">
+        <v>2</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="E161" s="7"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="6"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
+      <c r="F161" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B162" s="8">
+        <v>3</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="E162" s="7"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="6"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
+      <c r="F162" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A163" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B163" s="8">
+        <v>4</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="E163" s="7"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="6"/>
-      <c r="B164" s="8"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
+      <c r="F163" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A164" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B164" s="8">
+        <v>5</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="E164" s="7"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="6"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
+      <c r="F164" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A165" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B165" s="8">
+        <v>1</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>220</v>
+      </c>
       <c r="E165" s="7"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="6"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
+      <c r="F165" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A166" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B166" s="8">
+        <v>2</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="E166" s="7"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="6"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="6"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
+      <c r="F166" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B167" s="8">
+        <v>3</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A168" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B168" s="8">
+        <v>1</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>232</v>
+      </c>
       <c r="E168" s="7"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="6"/>
-      <c r="B169" s="8"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
+      <c r="F168" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A169" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B169" s="8">
+        <v>2</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="E169" s="7"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="6"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
+      <c r="F169" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A170" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B170" s="8">
+        <v>3</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>230</v>
+      </c>
       <c r="E170" s="7"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="6"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
+      <c r="F170" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A171" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B171" s="8">
+        <v>4</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="E171" s="7"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="6"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
+      <c r="F171" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A172" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B172" s="8">
+        <v>1</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="E172" s="7"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="6"/>
-      <c r="B173" s="8"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="7"/>
+      <c r="F172" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A173" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B173" s="8">
+        <v>2</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="E173" s="7"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="6"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
+      <c r="F173" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A174" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B174" s="8">
+        <v>3</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="E174" s="7"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="6"/>
-      <c r="B175" s="8"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
+      <c r="F174" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B175" s="8">
+        <v>1</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>244</v>
+      </c>
       <c r="E175" s="7"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="6"/>
-      <c r="B176" s="8"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="7"/>
+      <c r="F175" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A176" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B176" s="8">
+        <v>2</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>246</v>
+      </c>
       <c r="E176" s="7"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="6"/>
-      <c r="B177" s="8"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
+    <row r="177" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A177" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B177" s="8">
+        <v>3</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>247</v>
+      </c>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="6"/>
-      <c r="B178" s="8"/>
-      <c r="C178" s="7"/>
-      <c r="D178" s="7"/>
+    <row r="178" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A178" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B178" s="8">
+        <v>1</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>253</v>
+      </c>
       <c r="E178" s="7"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="6"/>
-      <c r="B179" s="8"/>
-      <c r="C179" s="7"/>
-      <c r="D179" s="7"/>
+    <row r="179" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A179" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B179" s="8">
+        <v>2</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="6"/>
-      <c r="B180" s="8"/>
-      <c r="C180" s="7"/>
-      <c r="D180" s="7"/>
+    <row r="180" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A180" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B180" s="8">
+        <v>3</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="6"/>
-      <c r="B181" s="8"/>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
+    <row r="181" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A181" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B181" s="8">
+        <v>4</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>256</v>
+      </c>
       <c r="E181" s="7"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -7395,7 +8397,7 @@
       <c r="E294" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E46"/>
+  <autoFilter ref="A3:F181"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/LAB Questions.xlsx
+++ b/LAB Questions.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="9036" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="9036" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Raphael" sheetId="1" r:id="rId1"/>
-    <sheet name="Pirmin" sheetId="9" r:id="rId2"/>
+    <sheet name="Daniel" sheetId="10" r:id="rId2"/>
+    <sheet name="Pirmin" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pirmin!$A$3:$F$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Pirmin!$A$3:$F$181</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Raphael!$A$3:$E$88</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="323">
   <si>
     <t>Nr.</t>
   </si>
@@ -1191,6 +1192,9 @@
   </si>
   <si>
     <t>The Utility strcpy() does NOT cause buffer overflow, buffers always zero byte terminated.</t>
+  </si>
+  <si>
+    <t>&lt;</t>
   </si>
 </sst>
 </file>
@@ -1382,6 +1386,55 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3886199</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>571499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4029074</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0827E988-9AB2-4A3D-AE0E-E2506B08B865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5372099" y="15331439"/>
+          <a:ext cx="4143375" cy="2329815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1818,8 +1871,8 @@
   <dimension ref="A1:E294"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+      <pane ySplit="3" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="A3:E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2719,7 +2772,9 @@
       <c r="C69" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="7"/>
+      <c r="D69" s="7" t="s">
+        <v>322</v>
+      </c>
       <c r="E69" s="7"/>
     </row>
     <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4979,11 +5034,2367 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E179"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="8">
+        <v>9.1</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="8">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="8">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="8">
+        <v>10.3</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="8">
+        <v>11.1</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="8">
+        <v>11.2</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="8">
+        <v>11.3</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="8">
+        <v>11.4</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="8">
+        <v>11.6</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="8">
+        <v>11.7</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="8">
+        <v>12.1</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="8">
+        <v>12.2</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="8">
+        <v>12.3</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="8">
+        <v>12.4</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="8">
+        <v>12.7</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="8">
+        <v>13.1</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="8">
+        <v>13.2</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="8">
+        <v>13.3</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="8">
+        <v>13.4</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="8">
+        <v>13.6</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="8">
+        <v>13.7</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="8">
+        <v>13.8</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="8">
+        <v>14.1</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="8">
+        <v>14.2</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="8">
+        <v>14.3</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="8">
+        <v>14.4</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="8">
+        <v>15.1</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="8">
+        <v>15.2</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="8">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" s="8">
+        <v>16.2</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="8">
+        <v>16.3</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" s="8">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="8">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" s="8">
+        <v>17.2</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="8">
+        <v>17.3</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" s="8">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="8">
+        <v>17.5</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="8">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" s="8">
+        <v>18.2</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" s="8">
+        <v>18.3</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="8">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86" s="8">
+        <v>18.5</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" s="8">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" s="8">
+        <v>19.2</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="8">
+        <v>19.3</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" s="8">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91" s="8">
+        <v>19.5</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="8">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B93" s="8">
+        <v>20.2</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="8">
+        <v>20.3</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="8">
+        <v>21.1</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="8">
+        <v>21.2</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" s="8">
+        <v>22.1</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" s="8">
+        <v>22.2</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B99" s="8">
+        <v>22.3</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" s="8">
+        <v>22.4</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101" s="8">
+        <v>22.5</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="8">
+        <v>22.6</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B103" s="8">
+        <v>23.1</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="8">
+        <v>23.2</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+    </row>
+    <row r="105" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="8">
+        <v>23.3</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B106" s="8">
+        <v>23.4</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B107" s="8">
+        <v>23.5</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B108" s="8">
+        <v>23.6</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+    </row>
+    <row r="109" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B109" s="8">
+        <v>24.1</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+    </row>
+    <row r="110" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B110" s="8">
+        <v>24.2</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+    </row>
+    <row r="111" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B111" s="8">
+        <v>24.3</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+    </row>
+    <row r="112" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B112" s="8">
+        <v>25.1</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+    </row>
+    <row r="113" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B113" s="8">
+        <v>25.2</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+    </row>
+    <row r="114" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B114" s="8">
+        <v>25.3</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+    </row>
+    <row r="115" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B115" s="8">
+        <v>25.4</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+    </row>
+    <row r="116" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B116" s="8">
+        <v>25.5</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+    </row>
+    <row r="117" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B117" s="8">
+        <v>25.6</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+    </row>
+    <row r="118" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B118" s="8">
+        <v>25.7</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+    </row>
+    <row r="119" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119" s="8">
+        <v>25.8</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+    </row>
+    <row r="120" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B120" s="8">
+        <v>26.1</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+    </row>
+    <row r="121" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B121" s="8">
+        <v>27.1</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+    </row>
+    <row r="122" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B122" s="8">
+        <v>27.2</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+    </row>
+    <row r="123" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B123" s="8">
+        <v>27.3</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+    </row>
+    <row r="124" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B124" s="8">
+        <v>27.4</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+    </row>
+    <row r="125" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B125" s="8">
+        <v>27.5</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+    </row>
+    <row r="126" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B126" s="8">
+        <v>27.6</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+    </row>
+    <row r="127" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127" s="8">
+        <v>27.7</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+    </row>
+    <row r="128" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B128" s="8">
+        <v>27.8</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+    </row>
+    <row r="129" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B129" s="8">
+        <v>28.1</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+    </row>
+    <row r="130" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B130" s="8">
+        <v>28.2</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+    </row>
+    <row r="131" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+    </row>
+    <row r="132" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B132" s="8">
+        <v>29.2</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+    </row>
+    <row r="133" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B133" s="8">
+        <v>30.1</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+    </row>
+    <row r="134" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B134" s="8">
+        <v>30.2</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+    </row>
+    <row r="135" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B135" s="8">
+        <v>30.3</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+    </row>
+    <row r="136" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B136" s="8">
+        <v>30.4</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+    </row>
+    <row r="137" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B137" s="8">
+        <v>30.5</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+    </row>
+    <row r="138" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B138" s="8">
+        <v>30.6</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+    </row>
+    <row r="139" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B139" s="8">
+        <v>30.7</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+    </row>
+    <row r="140" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B140" s="8">
+        <v>31.1</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+    </row>
+    <row r="141" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B141" s="8">
+        <v>31.2</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+    </row>
+    <row r="142" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="A142" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B142" s="8">
+        <v>32.1</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+    </row>
+    <row r="143" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B143" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+    </row>
+    <row r="144" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A144" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B144" s="8">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+    </row>
+    <row r="145" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A145" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B145" s="8">
+        <v>32.4</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+    </row>
+    <row r="146" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A146" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B146" s="8">
+        <v>33.1</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+    </row>
+    <row r="147" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B147" s="8">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+    </row>
+    <row r="148" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A148" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B148" s="8">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+    </row>
+    <row r="149" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A149" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B149" s="8">
+        <v>33.4</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+    </row>
+    <row r="150" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A150" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B150" s="8">
+        <v>33.5</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+    </row>
+    <row r="151" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B151" s="8">
+        <v>33.6</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+    </row>
+    <row r="152" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A152" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B152" s="8">
+        <v>34.1</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+    </row>
+    <row r="153" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A153" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B153" s="8">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+    </row>
+    <row r="154" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A154" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B154" s="8">
+        <v>35.1</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+    </row>
+    <row r="155" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A155" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B155" s="8">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+    </row>
+    <row r="156" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A156" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B156" s="8">
+        <v>36.1</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+    </row>
+    <row r="157" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A157" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B157" s="8">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+    </row>
+    <row r="158" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A158" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B158" s="8">
+        <v>1</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+    </row>
+    <row r="159" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A159" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B159" s="8">
+        <v>2</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+    </row>
+    <row r="160" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A160" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B160" s="8">
+        <v>3</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+    </row>
+    <row r="161" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A161" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B161" s="8">
+        <v>4</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+    </row>
+    <row r="162" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B162" s="8">
+        <v>5</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+    </row>
+    <row r="163" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A163" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B163" s="8">
+        <v>1</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+    </row>
+    <row r="164" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A164" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B164" s="8">
+        <v>2</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+    </row>
+    <row r="165" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A165" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B165" s="8">
+        <v>3</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+    </row>
+    <row r="166" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A166" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B166" s="8">
+        <v>1</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+    </row>
+    <row r="167" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B167" s="8">
+        <v>2</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+    </row>
+    <row r="168" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A168" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B168" s="8">
+        <v>3</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+    </row>
+    <row r="169" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A169" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B169" s="8">
+        <v>4</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+    </row>
+    <row r="170" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A170" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B170" s="8">
+        <v>1</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+    </row>
+    <row r="171" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A171" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B171" s="8">
+        <v>2</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+    </row>
+    <row r="172" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A172" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B172" s="8">
+        <v>3</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+    </row>
+    <row r="173" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A173" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B173" s="8">
+        <v>1</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+    </row>
+    <row r="174" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A174" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B174" s="8">
+        <v>2</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+    </row>
+    <row r="175" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A175" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B175" s="8">
+        <v>3</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+    </row>
+    <row r="176" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A176" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B176" s="8">
+        <v>1</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+    </row>
+    <row r="177" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A177" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B177" s="8">
+        <v>2</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+    </row>
+    <row r="178" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A178" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B178" s="8">
+        <v>3</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+    </row>
+    <row r="179" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A179" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B179" s="8">
+        <v>4</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/LAB Questions.xlsx
+++ b/LAB Questions.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.herger\Documents\SourceTree\INTRO_KISSLING_HERGER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael.Kissling\Documents\SourceTree\INTRO_KISSLING_HERGER\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="9036" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="9030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Raphael" sheetId="1" r:id="rId1"/>
-    <sheet name="Daniel" sheetId="10" r:id="rId2"/>
-    <sheet name="Pirmin" sheetId="9" r:id="rId3"/>
+    <sheet name="Recap with Solution" sheetId="11" r:id="rId2"/>
+    <sheet name="Daniel" sheetId="10" r:id="rId3"/>
+    <sheet name="Pirmin" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Pirmin!$A$3:$F$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Pirmin!$A$3:$F$181</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Raphael!$A$3:$E$88</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="336">
   <si>
     <t>Nr.</t>
   </si>
@@ -1196,12 +1197,52 @@
   <si>
     <t>&lt;</t>
   </si>
+  <si>
+    <t>ARM Cortex allowed 32 bit hardware multiply synthesized by one or 32 cycles. What’s the different?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is important to consider if you add and define a new event? </t>
+  </si>
+  <si>
+    <t>Antowort</t>
+  </si>
+  <si>
+    <t>Name three components you can add with processor expert.</t>
+  </si>
+  <si>
+    <t>Can you think of a different solution to share code / system blocks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Systems 
+and Realtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Systems and Realtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PE and Project Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Preprocessor, includes LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARM Cortex and Events</t>
+  </si>
+  <si>
+    <t>Which ARM processors are used for…?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1219,6 +1260,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1277,7 +1333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1319,6 +1375,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1356,7 +1425,7 @@
         <xdr:cNvPr id="3" name="Grafik 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1474,7 @@
         <xdr:cNvPr id="2" name="Grafik 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0827E988-9AB2-4A3D-AE0E-E2506B08B865}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0827E988-9AB2-4A3D-AE0E-E2506B08B865}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1523,7 @@
         <xdr:cNvPr id="3" name="Grafik 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E67D04F-CC21-4D20-AE37-9D9A591DF1B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E67D04F-CC21-4D20-AE37-9D9A591DF1B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1498,7 +1567,7 @@
         <xdr:cNvPr id="2" name="Grafik 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1611,7 @@
         <xdr:cNvPr id="4" name="Grafik 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A642641-FC99-4954-90CE-4510D8A78E96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A642641-FC99-4954-90CE-4510D8A78E96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1870,21 +1939,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E294"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="A3:E181"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="58.33203125" customWidth="1"/>
-    <col min="4" max="4" width="60.44140625" customWidth="1"/>
-    <col min="5" max="5" width="54.109375" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" customWidth="1"/>
+    <col min="4" max="4" width="60.42578125" customWidth="1"/>
+    <col min="5" max="5" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
@@ -1893,14 +1962,14 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1917,7 +1986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1930,7 +1999,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1943,7 +2012,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1956,7 +2025,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1969,7 +2038,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1982,7 +2051,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1995,7 +2064,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -2008,7 +2077,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -2021,7 +2090,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -2034,7 +2103,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2047,7 +2116,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
@@ -2060,7 +2129,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -2073,7 +2142,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
@@ -2086,7 +2155,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -2099,7 +2168,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>24</v>
       </c>
@@ -2112,7 +2181,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -2125,7 +2194,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
@@ -2138,7 +2207,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -2151,7 +2220,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
@@ -2164,7 +2233,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -2177,7 +2246,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
@@ -2190,7 +2259,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>34</v>
       </c>
@@ -2203,7 +2272,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
@@ -2216,7 +2285,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>40</v>
       </c>
@@ -2229,7 +2298,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>40</v>
       </c>
@@ -2242,7 +2311,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
@@ -2255,7 +2324,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>44</v>
       </c>
@@ -2268,7 +2337,7 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>44</v>
       </c>
@@ -2281,7 +2350,7 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>44</v>
       </c>
@@ -2294,7 +2363,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>44</v>
       </c>
@@ -2307,7 +2376,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>44</v>
       </c>
@@ -2320,7 +2389,7 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
@@ -2333,7 +2402,7 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>51</v>
       </c>
@@ -2346,7 +2415,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>51</v>
       </c>
@@ -2359,7 +2428,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>51</v>
       </c>
@@ -2372,7 +2441,7 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>51</v>
       </c>
@@ -2385,7 +2454,7 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>51</v>
       </c>
@@ -2398,7 +2467,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>51</v>
       </c>
@@ -2411,7 +2480,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>51</v>
       </c>
@@ -2424,7 +2493,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>51</v>
       </c>
@@ -2437,7 +2506,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>60</v>
       </c>
@@ -2450,7 +2519,7 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>60</v>
       </c>
@@ -2463,7 +2532,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>60</v>
       </c>
@@ -2476,7 +2545,7 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>68</v>
       </c>
@@ -2489,7 +2558,7 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>68</v>
       </c>
@@ -2502,7 +2571,7 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>68</v>
       </c>
@@ -2515,7 +2584,7 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>68</v>
       </c>
@@ -2528,7 +2597,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>68</v>
       </c>
@@ -2541,7 +2610,7 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>68</v>
       </c>
@@ -2554,7 +2623,7 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>68</v>
       </c>
@@ -2567,7 +2636,7 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>69</v>
       </c>
@@ -2580,7 +2649,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>69</v>
       </c>
@@ -2593,7 +2662,7 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>69</v>
       </c>
@@ -2606,7 +2675,7 @@
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>69</v>
       </c>
@@ -2619,7 +2688,7 @@
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>69</v>
       </c>
@@ -2632,7 +2701,7 @@
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>69</v>
       </c>
@@ -2645,7 +2714,7 @@
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>69</v>
       </c>
@@ -2658,7 +2727,7 @@
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>77</v>
       </c>
@@ -2671,7 +2740,7 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
     </row>
-    <row r="62" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>77</v>
       </c>
@@ -2684,7 +2753,7 @@
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>77</v>
       </c>
@@ -2697,7 +2766,7 @@
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>77</v>
       </c>
@@ -2710,7 +2779,7 @@
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>77</v>
       </c>
@@ -2723,7 +2792,7 @@
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>77</v>
       </c>
@@ -2736,7 +2805,7 @@
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>77</v>
       </c>
@@ -2749,7 +2818,7 @@
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>77</v>
       </c>
@@ -2762,7 +2831,7 @@
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>86</v>
       </c>
@@ -2777,7 +2846,7 @@
       </c>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>86</v>
       </c>
@@ -2790,7 +2859,7 @@
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>86</v>
       </c>
@@ -2803,7 +2872,7 @@
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>86</v>
       </c>
@@ -2816,7 +2885,7 @@
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>91</v>
       </c>
@@ -2829,7 +2898,7 @@
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>91</v>
       </c>
@@ -2842,7 +2911,7 @@
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>94</v>
       </c>
@@ -2855,7 +2924,7 @@
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>95</v>
       </c>
@@ -2868,7 +2937,7 @@
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>94</v>
       </c>
@@ -2881,7 +2950,7 @@
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>95</v>
       </c>
@@ -2894,7 +2963,7 @@
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
     </row>
-    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>100</v>
       </c>
@@ -2907,7 +2976,7 @@
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>100</v>
       </c>
@@ -2920,7 +2989,7 @@
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
     </row>
-    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>100</v>
       </c>
@@ -2933,7 +3002,7 @@
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>100</v>
       </c>
@@ -2946,7 +3015,7 @@
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>100</v>
       </c>
@@ -2959,7 +3028,7 @@
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>106</v>
       </c>
@@ -2972,7 +3041,7 @@
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>106</v>
       </c>
@@ -2985,7 +3054,7 @@
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>106</v>
       </c>
@@ -2998,7 +3067,7 @@
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
     </row>
-    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>106</v>
       </c>
@@ -3011,7 +3080,7 @@
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>106</v>
       </c>
@@ -3024,7 +3093,7 @@
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>113</v>
       </c>
@@ -3037,7 +3106,7 @@
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
     </row>
-    <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>113</v>
       </c>
@@ -3050,7 +3119,7 @@
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
     </row>
-    <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>113</v>
       </c>
@@ -3063,7 +3132,7 @@
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>113</v>
       </c>
@@ -3076,7 +3145,7 @@
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>113</v>
       </c>
@@ -3089,7 +3158,7 @@
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
     </row>
-    <row r="94" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>119</v>
       </c>
@@ -3102,7 +3171,7 @@
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>119</v>
       </c>
@@ -3115,7 +3184,7 @@
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>119</v>
       </c>
@@ -3128,7 +3197,7 @@
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>123</v>
       </c>
@@ -3141,7 +3210,7 @@
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>123</v>
       </c>
@@ -3154,7 +3223,7 @@
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>126</v>
       </c>
@@ -3167,7 +3236,7 @@
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>126</v>
       </c>
@@ -3180,7 +3249,7 @@
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>126</v>
       </c>
@@ -3193,7 +3262,7 @@
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>126</v>
       </c>
@@ -3206,7 +3275,7 @@
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
     </row>
-    <row r="103" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>126</v>
       </c>
@@ -3219,7 +3288,7 @@
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>126</v>
       </c>
@@ -3232,7 +3301,7 @@
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>132</v>
       </c>
@@ -3245,7 +3314,7 @@
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>132</v>
       </c>
@@ -3258,7 +3327,7 @@
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>132</v>
       </c>
@@ -3271,7 +3340,7 @@
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
     </row>
-    <row r="108" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>132</v>
       </c>
@@ -3284,7 +3353,7 @@
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>132</v>
       </c>
@@ -3297,7 +3366,7 @@
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
     </row>
-    <row r="110" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>132</v>
       </c>
@@ -3310,7 +3379,7 @@
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>140</v>
       </c>
@@ -3323,7 +3392,7 @@
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
     </row>
-    <row r="112" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>140</v>
       </c>
@@ -3336,7 +3405,7 @@
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>140</v>
       </c>
@@ -3349,7 +3418,7 @@
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
     </row>
-    <row r="114" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>144</v>
       </c>
@@ -3362,7 +3431,7 @@
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
     </row>
-    <row r="115" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>144</v>
       </c>
@@ -3375,7 +3444,7 @@
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
     </row>
-    <row r="116" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>144</v>
       </c>
@@ -3388,7 +3457,7 @@
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
     </row>
-    <row r="117" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>144</v>
       </c>
@@ -3401,7 +3470,7 @@
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>144</v>
       </c>
@@ -3414,7 +3483,7 @@
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>144</v>
       </c>
@@ -3427,7 +3496,7 @@
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>144</v>
       </c>
@@ -3440,7 +3509,7 @@
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
     </row>
-    <row r="121" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>144</v>
       </c>
@@ -3453,7 +3522,7 @@
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>153</v>
       </c>
@@ -3466,7 +3535,7 @@
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
     </row>
-    <row r="123" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>155</v>
       </c>
@@ -3479,7 +3548,7 @@
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
     </row>
-    <row r="124" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>155</v>
       </c>
@@ -3492,7 +3561,7 @@
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
     </row>
-    <row r="125" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>155</v>
       </c>
@@ -3505,7 +3574,7 @@
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
     </row>
-    <row r="126" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>155</v>
       </c>
@@ -3518,7 +3587,7 @@
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
     </row>
-    <row r="127" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>155</v>
       </c>
@@ -3531,7 +3600,7 @@
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>155</v>
       </c>
@@ -3544,7 +3613,7 @@
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
     </row>
-    <row r="129" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>155</v>
       </c>
@@ -3557,7 +3626,7 @@
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
     </row>
-    <row r="130" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>155</v>
       </c>
@@ -3570,7 +3639,7 @@
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
     </row>
-    <row r="131" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>164</v>
       </c>
@@ -3583,7 +3652,7 @@
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>164</v>
       </c>
@@ -3596,7 +3665,7 @@
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
     </row>
-    <row r="133" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>170</v>
       </c>
@@ -3609,7 +3678,7 @@
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>170</v>
       </c>
@@ -3622,7 +3691,7 @@
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
     </row>
-    <row r="135" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>169</v>
       </c>
@@ -3635,7 +3704,7 @@
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
     </row>
-    <row r="136" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>169</v>
       </c>
@@ -3648,7 +3717,7 @@
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
     </row>
-    <row r="137" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>169</v>
       </c>
@@ -3661,7 +3730,7 @@
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
     </row>
-    <row r="138" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>169</v>
       </c>
@@ -3674,7 +3743,7 @@
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
     </row>
-    <row r="139" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>169</v>
       </c>
@@ -3687,7 +3756,7 @@
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>169</v>
       </c>
@@ -3700,7 +3769,7 @@
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
     </row>
-    <row r="141" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>169</v>
       </c>
@@ -3713,7 +3782,7 @@
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
     </row>
-    <row r="142" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>178</v>
       </c>
@@ -3726,7 +3795,7 @@
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
     </row>
-    <row r="143" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>178</v>
       </c>
@@ -3739,7 +3808,7 @@
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>181</v>
       </c>
@@ -3752,7 +3821,7 @@
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>181</v>
       </c>
@@ -3765,7 +3834,7 @@
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>181</v>
       </c>
@@ -3778,7 +3847,7 @@
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>181</v>
       </c>
@@ -3791,7 +3860,7 @@
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
     </row>
-    <row r="148" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>186</v>
       </c>
@@ -3804,7 +3873,7 @@
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
     </row>
-    <row r="149" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>186</v>
       </c>
@@ -3817,7 +3886,7 @@
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
     </row>
-    <row r="150" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>186</v>
       </c>
@@ -3830,7 +3899,7 @@
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>186</v>
       </c>
@@ -3843,7 +3912,7 @@
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>186</v>
       </c>
@@ -3856,7 +3925,7 @@
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
     </row>
-    <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>186</v>
       </c>
@@ -3869,7 +3938,7 @@
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>193</v>
       </c>
@@ -3882,7 +3951,7 @@
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>193</v>
       </c>
@@ -3895,7 +3964,7 @@
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
     </row>
-    <row r="156" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>196</v>
       </c>
@@ -3908,7 +3977,7 @@
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>196</v>
       </c>
@@ -3921,7 +3990,7 @@
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
     </row>
-    <row r="158" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>199</v>
       </c>
@@ -3934,7 +4003,7 @@
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
     </row>
-    <row r="159" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>199</v>
       </c>
@@ -3947,7 +4016,7 @@
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>202</v>
       </c>
@@ -3960,7 +4029,7 @@
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>202</v>
       </c>
@@ -3973,7 +4042,7 @@
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>202</v>
       </c>
@@ -3986,7 +4055,7 @@
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
     </row>
-    <row r="163" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>202</v>
       </c>
@@ -3999,7 +4068,7 @@
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
     </row>
-    <row r="164" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>202</v>
       </c>
@@ -4012,7 +4081,7 @@
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
     </row>
-    <row r="165" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>217</v>
       </c>
@@ -4025,7 +4094,7 @@
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
     </row>
-    <row r="166" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>217</v>
       </c>
@@ -4038,7 +4107,7 @@
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>217</v>
       </c>
@@ -4051,7 +4120,7 @@
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>224</v>
       </c>
@@ -4064,7 +4133,7 @@
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
     </row>
-    <row r="169" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>224</v>
       </c>
@@ -4077,7 +4146,7 @@
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
     </row>
-    <row r="170" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>224</v>
       </c>
@@ -4090,7 +4159,7 @@
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
     </row>
-    <row r="171" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>224</v>
       </c>
@@ -4103,7 +4172,7 @@
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>236</v>
       </c>
@@ -4116,7 +4185,7 @@
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>236</v>
       </c>
@@ -4129,7 +4198,7 @@
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
     </row>
-    <row r="174" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>236</v>
       </c>
@@ -4142,7 +4211,7 @@
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>243</v>
       </c>
@@ -4155,7 +4224,7 @@
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>243</v>
       </c>
@@ -4168,7 +4237,7 @@
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>243</v>
       </c>
@@ -4181,7 +4250,7 @@
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>248</v>
       </c>
@@ -4194,7 +4263,7 @@
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
     </row>
-    <row r="179" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>248</v>
       </c>
@@ -4207,7 +4276,7 @@
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>248</v>
       </c>
@@ -4220,7 +4289,7 @@
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>248</v>
       </c>
@@ -4233,791 +4302,703 @@
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="8"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="8"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="8"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="8"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="8"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="8"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="8"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="8"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="8"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="8"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="8"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="8"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="8"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="8"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="8"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="8"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="8"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="8"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="8"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="8"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="8"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="8"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="8"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="8"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="8"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="8"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="8"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="8"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="8"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="8"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="6"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="7"/>
-      <c r="D212" s="7"/>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E212" s="7"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="6"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="7"/>
-      <c r="D213" s="7"/>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E213" s="7"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="6"/>
-      <c r="B214" s="8"/>
-      <c r="C214" s="7"/>
-      <c r="D214" s="7"/>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E214" s="7"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="6"/>
-      <c r="B215" s="8"/>
-      <c r="C215" s="7"/>
-      <c r="D215" s="7"/>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E215" s="7"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="6"/>
-      <c r="B216" s="8"/>
-      <c r="C216" s="7"/>
-      <c r="D216" s="7"/>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E216" s="7"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="6"/>
-      <c r="B217" s="8"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="7"/>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E217" s="7"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="6"/>
-      <c r="B218" s="8"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="7"/>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E218" s="7"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="6"/>
-      <c r="B219" s="8"/>
-      <c r="C219" s="7"/>
-      <c r="D219" s="7"/>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E219" s="7"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="6"/>
-      <c r="B220" s="8"/>
-      <c r="C220" s="7"/>
-      <c r="D220" s="7"/>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E220" s="7"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="6"/>
-      <c r="B221" s="8"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="7"/>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E221" s="7"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="6"/>
-      <c r="B222" s="8"/>
-      <c r="C222" s="7"/>
-      <c r="D222" s="7"/>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E222" s="7"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="6"/>
-      <c r="B223" s="8"/>
-      <c r="C223" s="7"/>
-      <c r="D223" s="7"/>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E223" s="7"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="6"/>
-      <c r="B224" s="8"/>
-      <c r="C224" s="7"/>
-      <c r="D224" s="7"/>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E224" s="7"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="6"/>
-      <c r="B225" s="8"/>
-      <c r="C225" s="7"/>
-      <c r="D225" s="7"/>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E225" s="7"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="6"/>
-      <c r="B226" s="8"/>
-      <c r="C226" s="7"/>
-      <c r="D226" s="7"/>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E226" s="7"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="6"/>
-      <c r="B227" s="8"/>
-      <c r="C227" s="7"/>
-      <c r="D227" s="7"/>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E227" s="7"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="6"/>
-      <c r="B228" s="8"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="7"/>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E228" s="7"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="6"/>
-      <c r="B229" s="8"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="7"/>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E229" s="7"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="6"/>
-      <c r="B230" s="8"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="7"/>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E230" s="7"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="6"/>
-      <c r="B231" s="8"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="7"/>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E231" s="7"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="6"/>
-      <c r="B232" s="8"/>
-      <c r="C232" s="7"/>
-      <c r="D232" s="7"/>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E232" s="7"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="6"/>
-      <c r="B233" s="8"/>
-      <c r="C233" s="7"/>
-      <c r="D233" s="7"/>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E233" s="7"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="8"/>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="8"/>
       <c r="C235" s="7"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="8"/>
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="8"/>
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="8"/>
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="8"/>
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="8"/>
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="8"/>
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="8"/>
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="8"/>
       <c r="C243" s="7"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="8"/>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="8"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="8"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="8"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="8"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="8"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="8"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="8"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="8"/>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="8"/>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="8"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="8"/>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="8"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="8"/>
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="8"/>
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="8"/>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="8"/>
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="8"/>
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="8"/>
       <c r="C262" s="7"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="8"/>
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="8"/>
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="8"/>
       <c r="C265" s="7"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="8"/>
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="8"/>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="8"/>
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="8"/>
       <c r="C269" s="7"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="8"/>
       <c r="C270" s="7"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="8"/>
       <c r="C271" s="7"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="8"/>
       <c r="C272" s="7"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="8"/>
       <c r="C273" s="7"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="8"/>
       <c r="C274" s="7"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="8"/>
       <c r="C275" s="7"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="8"/>
       <c r="C276" s="7"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="8"/>
       <c r="C277" s="7"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="8"/>
       <c r="C278" s="7"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="8"/>
       <c r="C279" s="7"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="8"/>
       <c r="C280" s="7"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="8"/>
       <c r="C281" s="7"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="8"/>
       <c r="C282" s="7"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="8"/>
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="8"/>
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
       <c r="B285" s="8"/>
       <c r="C285" s="7"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="8"/>
       <c r="C286" s="7"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="8"/>
       <c r="C287" s="7"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="8"/>
       <c r="C288" s="7"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="8"/>
       <c r="C289" s="7"/>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="8"/>
       <c r="C290" s="7"/>
       <c r="D290" s="7"/>
       <c r="E290" s="7"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="8"/>
       <c r="C291" s="7"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="8"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="8"/>
       <c r="C293" s="7"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="8"/>
       <c r="C294" s="7"/>
@@ -5034,22 +5015,1866 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D295"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="97" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="20">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="20">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" s="20">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" s="20">
+        <v>4</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="20">
+        <v>5</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" s="20">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" s="20">
+        <v>2</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" s="20">
+        <v>3</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" s="20">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" s="20">
+        <v>2</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" s="20">
+        <v>3</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" s="20">
+        <v>4</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" s="20">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="B15" s="20">
+        <v>2</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="B16" s="20">
+        <v>3</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" s="20">
+        <v>1</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="B18" s="20">
+        <v>2</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="20">
+        <v>3</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="B20" s="20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="B21" s="20">
+        <v>2</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="B22" s="20">
+        <v>3</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="B23" s="20">
+        <v>4</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="6"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="6"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="6"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="6"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="6"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="6"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="6"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="7"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="7"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="7"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="6"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="6"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="6"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="6"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="6"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="6"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="6"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="6"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="6"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="6"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="6"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="6"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="6"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="6"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="6"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="6"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="6"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="6"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="6"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="6"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="6"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="6"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="6"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="6"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="6"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="6"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="6"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="6"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="6"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="6"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="6"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="6"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="7"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="7"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="7"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="7"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="7"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="7"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="6"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="6"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="6"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="6"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="6"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="6"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="6"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="6"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="6"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="6"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="6"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="7"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="7"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="7"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="7"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="7"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="7"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="7"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="7"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="7"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="7"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="7"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="6"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="6"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="6"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="7"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="7"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="7"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="7"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="6"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="6"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="6"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="6"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="6"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="6"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="6"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="6"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="6"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="6"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="6"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="6"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="6"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="6"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="6"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="6"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="6"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="6"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="6"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="6"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="6"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="6"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="6"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="7"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="6"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="6"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="6"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="6"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="7"/>
+      <c r="D209" s="7"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="6"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="7"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="6"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="6"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="7"/>
+      <c r="D212" s="7"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="6"/>
+      <c r="B235" s="8"/>
+      <c r="C235" s="7"/>
+      <c r="D235" s="7"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="6"/>
+      <c r="B236" s="8"/>
+      <c r="C236" s="7"/>
+      <c r="D236" s="7"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="6"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="7"/>
+      <c r="D237" s="7"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="6"/>
+      <c r="B238" s="8"/>
+      <c r="C238" s="7"/>
+      <c r="D238" s="7"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="6"/>
+      <c r="B239" s="8"/>
+      <c r="C239" s="7"/>
+      <c r="D239" s="7"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="6"/>
+      <c r="B240" s="8"/>
+      <c r="C240" s="7"/>
+      <c r="D240" s="7"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="6"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="7"/>
+      <c r="D241" s="7"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="6"/>
+      <c r="B242" s="8"/>
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="6"/>
+      <c r="B243" s="8"/>
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="6"/>
+      <c r="B244" s="8"/>
+      <c r="C244" s="7"/>
+      <c r="D244" s="7"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="6"/>
+      <c r="B245" s="8"/>
+      <c r="C245" s="7"/>
+      <c r="D245" s="7"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="6"/>
+      <c r="B246" s="8"/>
+      <c r="C246" s="7"/>
+      <c r="D246" s="7"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="6"/>
+      <c r="B247" s="8"/>
+      <c r="C247" s="7"/>
+      <c r="D247" s="7"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="6"/>
+      <c r="B248" s="8"/>
+      <c r="C248" s="7"/>
+      <c r="D248" s="7"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="6"/>
+      <c r="B249" s="8"/>
+      <c r="C249" s="7"/>
+      <c r="D249" s="7"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="6"/>
+      <c r="B250" s="8"/>
+      <c r="C250" s="7"/>
+      <c r="D250" s="7"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="6"/>
+      <c r="B251" s="8"/>
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="6"/>
+      <c r="B252" s="8"/>
+      <c r="C252" s="7"/>
+      <c r="D252" s="7"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="6"/>
+      <c r="B253" s="8"/>
+      <c r="C253" s="7"/>
+      <c r="D253" s="7"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="6"/>
+      <c r="B254" s="8"/>
+      <c r="C254" s="7"/>
+      <c r="D254" s="7"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="6"/>
+      <c r="B255" s="8"/>
+      <c r="C255" s="7"/>
+      <c r="D255" s="7"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="6"/>
+      <c r="B256" s="8"/>
+      <c r="C256" s="7"/>
+      <c r="D256" s="7"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="6"/>
+      <c r="B257" s="8"/>
+      <c r="C257" s="7"/>
+      <c r="D257" s="7"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="6"/>
+      <c r="B258" s="8"/>
+      <c r="C258" s="7"/>
+      <c r="D258" s="7"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="6"/>
+      <c r="B259" s="8"/>
+      <c r="C259" s="7"/>
+      <c r="D259" s="7"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="6"/>
+      <c r="B260" s="8"/>
+      <c r="C260" s="7"/>
+      <c r="D260" s="7"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="6"/>
+      <c r="B261" s="8"/>
+      <c r="C261" s="7"/>
+      <c r="D261" s="7"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="6"/>
+      <c r="B262" s="8"/>
+      <c r="C262" s="7"/>
+      <c r="D262" s="7"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="6"/>
+      <c r="B263" s="8"/>
+      <c r="C263" s="7"/>
+      <c r="D263" s="7"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="6"/>
+      <c r="B264" s="8"/>
+      <c r="C264" s="7"/>
+      <c r="D264" s="7"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="6"/>
+      <c r="B265" s="8"/>
+      <c r="C265" s="7"/>
+      <c r="D265" s="7"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="6"/>
+      <c r="B266" s="8"/>
+      <c r="C266" s="7"/>
+      <c r="D266" s="7"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="6"/>
+      <c r="B267" s="8"/>
+      <c r="C267" s="7"/>
+      <c r="D267" s="7"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="6"/>
+      <c r="B268" s="8"/>
+      <c r="C268" s="7"/>
+      <c r="D268" s="7"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="6"/>
+      <c r="B269" s="8"/>
+      <c r="C269" s="7"/>
+      <c r="D269" s="7"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="6"/>
+      <c r="B270" s="8"/>
+      <c r="C270" s="7"/>
+      <c r="D270" s="7"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="6"/>
+      <c r="B271" s="8"/>
+      <c r="C271" s="7"/>
+      <c r="D271" s="7"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="6"/>
+      <c r="B272" s="8"/>
+      <c r="C272" s="7"/>
+      <c r="D272" s="7"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="6"/>
+      <c r="B273" s="8"/>
+      <c r="C273" s="7"/>
+      <c r="D273" s="7"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="6"/>
+      <c r="B274" s="8"/>
+      <c r="C274" s="7"/>
+      <c r="D274" s="7"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="6"/>
+      <c r="B275" s="8"/>
+      <c r="C275" s="7"/>
+      <c r="D275" s="7"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="6"/>
+      <c r="B276" s="8"/>
+      <c r="C276" s="7"/>
+      <c r="D276" s="7"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="6"/>
+      <c r="B277" s="8"/>
+      <c r="C277" s="7"/>
+      <c r="D277" s="7"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="6"/>
+      <c r="B278" s="8"/>
+      <c r="C278" s="7"/>
+      <c r="D278" s="7"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="6"/>
+      <c r="B279" s="8"/>
+      <c r="C279" s="7"/>
+      <c r="D279" s="7"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="6"/>
+      <c r="B280" s="8"/>
+      <c r="C280" s="7"/>
+      <c r="D280" s="7"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="6"/>
+      <c r="B281" s="8"/>
+      <c r="C281" s="7"/>
+      <c r="D281" s="7"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="6"/>
+      <c r="B282" s="8"/>
+      <c r="C282" s="7"/>
+      <c r="D282" s="7"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="6"/>
+      <c r="B283" s="8"/>
+      <c r="C283" s="7"/>
+      <c r="D283" s="7"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="6"/>
+      <c r="B284" s="8"/>
+      <c r="C284" s="7"/>
+      <c r="D284" s="7"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="6"/>
+      <c r="B285" s="8"/>
+      <c r="C285" s="7"/>
+      <c r="D285" s="7"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="6"/>
+      <c r="B286" s="8"/>
+      <c r="C286" s="7"/>
+      <c r="D286" s="7"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="6"/>
+      <c r="B287" s="8"/>
+      <c r="C287" s="7"/>
+      <c r="D287" s="7"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="6"/>
+      <c r="B288" s="8"/>
+      <c r="C288" s="7"/>
+      <c r="D288" s="7"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="6"/>
+      <c r="B289" s="8"/>
+      <c r="C289" s="7"/>
+      <c r="D289" s="7"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="6"/>
+      <c r="B290" s="8"/>
+      <c r="C290" s="7"/>
+      <c r="D290" s="7"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="6"/>
+      <c r="B291" s="8"/>
+      <c r="C291" s="7"/>
+      <c r="D291" s="7"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="6"/>
+      <c r="B292" s="8"/>
+      <c r="C292" s="7"/>
+      <c r="D292" s="7"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="6"/>
+      <c r="B293" s="8"/>
+      <c r="C293" s="7"/>
+      <c r="D293" s="7"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="6"/>
+      <c r="B294" s="8"/>
+      <c r="C294" s="7"/>
+      <c r="D294" s="7"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="6"/>
+      <c r="B295" s="8"/>
+      <c r="C295" s="7"/>
+      <c r="D295" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -5066,7 +6891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -5079,7 +6904,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -5092,7 +6917,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -5105,7 +6930,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -5118,7 +6943,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -5131,7 +6956,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -5144,7 +6969,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -5157,7 +6982,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -5170,7 +6995,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -5183,7 +7008,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -5196,7 +7021,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -5209,7 +7034,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -5222,7 +7047,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
@@ -5235,7 +7060,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -5248,7 +7073,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
@@ -5261,7 +7086,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -5274,7 +7099,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>24</v>
       </c>
@@ -5287,7 +7112,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -5300,7 +7125,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -5313,7 +7138,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
@@ -5326,7 +7151,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
@@ -5339,7 +7164,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -5352,7 +7177,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
@@ -5365,7 +7190,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
@@ -5378,7 +7203,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>40</v>
       </c>
@@ -5391,7 +7216,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>40</v>
       </c>
@@ -5404,7 +7229,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>44</v>
       </c>
@@ -5417,7 +7242,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
@@ -5430,7 +7255,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>44</v>
       </c>
@@ -5443,7 +7268,7 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>44</v>
       </c>
@@ -5456,7 +7281,7 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>44</v>
       </c>
@@ -5469,7 +7294,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>44</v>
       </c>
@@ -5482,7 +7307,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>51</v>
       </c>
@@ -5495,7 +7320,7 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>51</v>
       </c>
@@ -5508,7 +7333,7 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>51</v>
       </c>
@@ -5521,7 +7346,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>51</v>
       </c>
@@ -5534,7 +7359,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>51</v>
       </c>
@@ -5547,7 +7372,7 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>51</v>
       </c>
@@ -5560,7 +7385,7 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>51</v>
       </c>
@@ -5573,7 +7398,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>51</v>
       </c>
@@ -5586,7 +7411,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>60</v>
       </c>
@@ -5599,7 +7424,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>60</v>
       </c>
@@ -5612,7 +7437,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>60</v>
       </c>
@@ -5625,7 +7450,7 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>68</v>
       </c>
@@ -5638,7 +7463,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>68</v>
       </c>
@@ -5651,7 +7476,7 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>68</v>
       </c>
@@ -5664,7 +7489,7 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>68</v>
       </c>
@@ -5677,7 +7502,7 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>68</v>
       </c>
@@ -5690,7 +7515,7 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>68</v>
       </c>
@@ -5703,7 +7528,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>68</v>
       </c>
@@ -5716,7 +7541,7 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>69</v>
       </c>
@@ -5729,7 +7554,7 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>69</v>
       </c>
@@ -5742,7 +7567,7 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>69</v>
       </c>
@@ -5755,7 +7580,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>69</v>
       </c>
@@ -5768,7 +7593,7 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>69</v>
       </c>
@@ -5781,7 +7606,7 @@
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>69</v>
       </c>
@@ -5794,7 +7619,7 @@
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>69</v>
       </c>
@@ -5807,7 +7632,7 @@
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>77</v>
       </c>
@@ -5820,7 +7645,7 @@
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>77</v>
       </c>
@@ -5833,7 +7658,7 @@
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>77</v>
       </c>
@@ -5846,7 +7671,7 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
     </row>
-    <row r="62" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>77</v>
       </c>
@@ -5859,7 +7684,7 @@
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>77</v>
       </c>
@@ -5872,7 +7697,7 @@
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>77</v>
       </c>
@@ -5885,7 +7710,7 @@
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>77</v>
       </c>
@@ -5898,7 +7723,7 @@
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>77</v>
       </c>
@@ -5911,7 +7736,7 @@
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>86</v>
       </c>
@@ -5926,7 +7751,7 @@
       </c>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>86</v>
       </c>
@@ -5939,7 +7764,7 @@
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>86</v>
       </c>
@@ -5952,7 +7777,7 @@
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>86</v>
       </c>
@@ -5965,7 +7790,7 @@
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>91</v>
       </c>
@@ -5978,7 +7803,7 @@
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>91</v>
       </c>
@@ -5991,7 +7816,7 @@
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>94</v>
       </c>
@@ -6004,7 +7829,7 @@
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>95</v>
       </c>
@@ -6017,7 +7842,7 @@
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>94</v>
       </c>
@@ -6030,7 +7855,7 @@
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>95</v>
       </c>
@@ -6043,7 +7868,7 @@
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>100</v>
       </c>
@@ -6056,7 +7881,7 @@
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>100</v>
       </c>
@@ -6069,7 +7894,7 @@
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
     </row>
-    <row r="79" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>100</v>
       </c>
@@ -6082,7 +7907,7 @@
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>100</v>
       </c>
@@ -6095,7 +7920,7 @@
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
     </row>
-    <row r="81" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>100</v>
       </c>
@@ -6108,7 +7933,7 @@
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>106</v>
       </c>
@@ -6121,7 +7946,7 @@
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>106</v>
       </c>
@@ -6134,7 +7959,7 @@
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>106</v>
       </c>
@@ -6147,7 +7972,7 @@
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>106</v>
       </c>
@@ -6160,7 +7985,7 @@
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>106</v>
       </c>
@@ -6173,7 +7998,7 @@
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
     </row>
-    <row r="87" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>113</v>
       </c>
@@ -6186,7 +8011,7 @@
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>113</v>
       </c>
@@ -6199,7 +8024,7 @@
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>113</v>
       </c>
@@ -6212,7 +8037,7 @@
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
     </row>
-    <row r="90" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>113</v>
       </c>
@@ -6225,7 +8050,7 @@
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
     </row>
-    <row r="91" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>113</v>
       </c>
@@ -6238,7 +8063,7 @@
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>119</v>
       </c>
@@ -6251,7 +8076,7 @@
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>119</v>
       </c>
@@ -6264,7 +8089,7 @@
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
     </row>
-    <row r="94" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>119</v>
       </c>
@@ -6277,7 +8102,7 @@
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>123</v>
       </c>
@@ -6290,7 +8115,7 @@
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>123</v>
       </c>
@@ -6303,7 +8128,7 @@
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>126</v>
       </c>
@@ -6316,7 +8141,7 @@
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>126</v>
       </c>
@@ -6329,7 +8154,7 @@
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>126</v>
       </c>
@@ -6342,7 +8167,7 @@
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>126</v>
       </c>
@@ -6355,7 +8180,7 @@
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>126</v>
       </c>
@@ -6368,7 +8193,7 @@
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>126</v>
       </c>
@@ -6381,7 +8206,7 @@
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
     </row>
-    <row r="103" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>132</v>
       </c>
@@ -6394,7 +8219,7 @@
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>132</v>
       </c>
@@ -6407,7 +8232,7 @@
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
     </row>
-    <row r="105" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>132</v>
       </c>
@@ -6420,7 +8245,7 @@
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>132</v>
       </c>
@@ -6433,7 +8258,7 @@
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>132</v>
       </c>
@@ -6446,7 +8271,7 @@
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
     </row>
-    <row r="108" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>132</v>
       </c>
@@ -6459,7 +8284,7 @@
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>140</v>
       </c>
@@ -6472,7 +8297,7 @@
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
     </row>
-    <row r="110" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>140</v>
       </c>
@@ -6485,7 +8310,7 @@
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>140</v>
       </c>
@@ -6498,7 +8323,7 @@
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
     </row>
-    <row r="112" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>144</v>
       </c>
@@ -6511,7 +8336,7 @@
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>144</v>
       </c>
@@ -6524,7 +8349,7 @@
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
     </row>
-    <row r="114" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>144</v>
       </c>
@@ -6537,7 +8362,7 @@
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
     </row>
-    <row r="115" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>144</v>
       </c>
@@ -6550,7 +8375,7 @@
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
     </row>
-    <row r="116" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>144</v>
       </c>
@@ -6563,7 +8388,7 @@
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
     </row>
-    <row r="117" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>144</v>
       </c>
@@ -6576,7 +8401,7 @@
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
     </row>
-    <row r="118" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>144</v>
       </c>
@@ -6589,7 +8414,7 @@
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
     </row>
-    <row r="119" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>144</v>
       </c>
@@ -6602,7 +8427,7 @@
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>153</v>
       </c>
@@ -6615,7 +8440,7 @@
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
     </row>
-    <row r="121" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>155</v>
       </c>
@@ -6628,7 +8453,7 @@
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>155</v>
       </c>
@@ -6641,7 +8466,7 @@
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
     </row>
-    <row r="123" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>155</v>
       </c>
@@ -6654,7 +8479,7 @@
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
     </row>
-    <row r="124" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>155</v>
       </c>
@@ -6667,7 +8492,7 @@
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
     </row>
-    <row r="125" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>155</v>
       </c>
@@ -6680,7 +8505,7 @@
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
     </row>
-    <row r="126" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>155</v>
       </c>
@@ -6693,7 +8518,7 @@
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
     </row>
-    <row r="127" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>155</v>
       </c>
@@ -6706,7 +8531,7 @@
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>155</v>
       </c>
@@ -6719,7 +8544,7 @@
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
     </row>
-    <row r="129" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>164</v>
       </c>
@@ -6732,7 +8557,7 @@
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
     </row>
-    <row r="130" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>164</v>
       </c>
@@ -6745,7 +8570,7 @@
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
     </row>
-    <row r="131" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>170</v>
       </c>
@@ -6758,7 +8583,7 @@
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>170</v>
       </c>
@@ -6771,7 +8596,7 @@
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
     </row>
-    <row r="133" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>169</v>
       </c>
@@ -6784,7 +8609,7 @@
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>169</v>
       </c>
@@ -6797,7 +8622,7 @@
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
     </row>
-    <row r="135" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>169</v>
       </c>
@@ -6810,7 +8635,7 @@
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
     </row>
-    <row r="136" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>169</v>
       </c>
@@ -6823,7 +8648,7 @@
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
     </row>
-    <row r="137" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>169</v>
       </c>
@@ -6836,7 +8661,7 @@
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
     </row>
-    <row r="138" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>169</v>
       </c>
@@ -6849,7 +8674,7 @@
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
     </row>
-    <row r="139" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>169</v>
       </c>
@@ -6862,7 +8687,7 @@
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>178</v>
       </c>
@@ -6875,7 +8700,7 @@
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
     </row>
-    <row r="141" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>178</v>
       </c>
@@ -6888,7 +8713,7 @@
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
     </row>
-    <row r="142" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>181</v>
       </c>
@@ -6901,7 +8726,7 @@
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
     </row>
-    <row r="143" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>181</v>
       </c>
@@ -6914,7 +8739,7 @@
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>181</v>
       </c>
@@ -6927,7 +8752,7 @@
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>181</v>
       </c>
@@ -6940,7 +8765,7 @@
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>186</v>
       </c>
@@ -6953,7 +8778,7 @@
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
     </row>
-    <row r="147" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>186</v>
       </c>
@@ -6966,7 +8791,7 @@
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
     </row>
-    <row r="148" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>186</v>
       </c>
@@ -6979,7 +8804,7 @@
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
     </row>
-    <row r="149" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>186</v>
       </c>
@@ -6992,7 +8817,7 @@
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
     </row>
-    <row r="150" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>186</v>
       </c>
@@ -7005,7 +8830,7 @@
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>186</v>
       </c>
@@ -7018,7 +8843,7 @@
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>193</v>
       </c>
@@ -7031,7 +8856,7 @@
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
     </row>
-    <row r="153" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>193</v>
       </c>
@@ -7044,7 +8869,7 @@
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
     </row>
-    <row r="154" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>196</v>
       </c>
@@ -7057,7 +8882,7 @@
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>196</v>
       </c>
@@ -7070,7 +8895,7 @@
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
     </row>
-    <row r="156" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>199</v>
       </c>
@@ -7083,7 +8908,7 @@
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
     </row>
-    <row r="157" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>199</v>
       </c>
@@ -7096,7 +8921,7 @@
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
     </row>
-    <row r="158" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>202</v>
       </c>
@@ -7109,7 +8934,7 @@
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
     </row>
-    <row r="159" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>202</v>
       </c>
@@ -7122,7 +8947,7 @@
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
     </row>
-    <row r="160" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>202</v>
       </c>
@@ -7135,7 +8960,7 @@
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
     </row>
-    <row r="161" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>202</v>
       </c>
@@ -7148,7 +8973,7 @@
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
     </row>
-    <row r="162" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>202</v>
       </c>
@@ -7161,7 +8986,7 @@
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
     </row>
-    <row r="163" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>217</v>
       </c>
@@ -7174,7 +8999,7 @@
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
     </row>
-    <row r="164" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>217</v>
       </c>
@@ -7187,7 +9012,7 @@
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
     </row>
-    <row r="165" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>217</v>
       </c>
@@ -7200,7 +9025,7 @@
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
     </row>
-    <row r="166" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>224</v>
       </c>
@@ -7213,7 +9038,7 @@
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
     </row>
-    <row r="167" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>224</v>
       </c>
@@ -7226,7 +9051,7 @@
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
     </row>
-    <row r="168" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>224</v>
       </c>
@@ -7239,7 +9064,7 @@
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
     </row>
-    <row r="169" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>224</v>
       </c>
@@ -7252,7 +9077,7 @@
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
     </row>
-    <row r="170" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>236</v>
       </c>
@@ -7265,7 +9090,7 @@
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
     </row>
-    <row r="171" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>236</v>
       </c>
@@ -7278,7 +9103,7 @@
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
     </row>
-    <row r="172" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>236</v>
       </c>
@@ -7291,7 +9116,7 @@
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
     </row>
-    <row r="173" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>243</v>
       </c>
@@ -7304,7 +9129,7 @@
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
     </row>
-    <row r="174" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>243</v>
       </c>
@@ -7317,7 +9142,7 @@
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
     </row>
-    <row r="175" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>243</v>
       </c>
@@ -7330,7 +9155,7 @@
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>248</v>
       </c>
@@ -7343,7 +9168,7 @@
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
     </row>
-    <row r="177" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>248</v>
       </c>
@@ -7356,7 +9181,7 @@
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>248</v>
       </c>
@@ -7369,7 +9194,7 @@
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
     </row>
-    <row r="179" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>248</v>
       </c>
@@ -7388,26 +9213,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A160" sqref="A160:D181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="58.33203125" customWidth="1"/>
-    <col min="4" max="4" width="60.44140625" customWidth="1"/>
-    <col min="5" max="5" width="54.109375" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" customWidth="1"/>
+    <col min="4" max="4" width="60.42578125" customWidth="1"/>
+    <col min="5" max="5" width="54.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
@@ -7417,7 +9242,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7425,7 +9250,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -7445,7 +9270,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -7463,7 +9288,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -7481,7 +9306,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -7499,7 +9324,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -7517,7 +9342,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -7535,7 +9360,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -7553,7 +9378,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -7571,7 +9396,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
@@ -7589,7 +9414,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -7607,7 +9432,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -7622,7 +9447,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
@@ -7637,7 +9462,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -7652,7 +9477,7 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
@@ -7667,7 +9492,7 @@
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -7682,7 +9507,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>24</v>
       </c>
@@ -7697,7 +9522,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -7712,7 +9537,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
@@ -7727,7 +9552,7 @@
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -7742,7 +9567,7 @@
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
@@ -7757,7 +9582,7 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -7772,7 +9597,7 @@
       </c>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
@@ -7787,7 +9612,7 @@
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>34</v>
       </c>
@@ -7802,7 +9627,7 @@
       </c>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
@@ -7817,7 +9642,7 @@
       </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>40</v>
       </c>
@@ -7832,7 +9657,7 @@
       </c>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>40</v>
       </c>
@@ -7847,7 +9672,7 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
@@ -7862,7 +9687,7 @@
       </c>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>44</v>
       </c>
@@ -7877,7 +9702,7 @@
       </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>44</v>
       </c>
@@ -7892,7 +9717,7 @@
       </c>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>44</v>
       </c>
@@ -7907,7 +9732,7 @@
       </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>44</v>
       </c>
@@ -7922,7 +9747,7 @@
       </c>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>44</v>
       </c>
@@ -7937,7 +9762,7 @@
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
@@ -7952,7 +9777,7 @@
       </c>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>51</v>
       </c>
@@ -7967,7 +9792,7 @@
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>51</v>
       </c>
@@ -7982,7 +9807,7 @@
       </c>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>51</v>
       </c>
@@ -7997,7 +9822,7 @@
       </c>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>51</v>
       </c>
@@ -8010,7 +9835,7 @@
       <c r="D39" s="15"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>51</v>
       </c>
@@ -8025,7 +9850,7 @@
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>51</v>
       </c>
@@ -8040,7 +9865,7 @@
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>51</v>
       </c>
@@ -8055,7 +9880,7 @@
       </c>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>51</v>
       </c>
@@ -8070,7 +9895,7 @@
       </c>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>60</v>
       </c>
@@ -8085,7 +9910,7 @@
       </c>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>60</v>
       </c>
@@ -8100,7 +9925,7 @@
       </c>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>60</v>
       </c>
@@ -8115,7 +9940,7 @@
       </c>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>68</v>
       </c>
@@ -8132,7 +9957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>68</v>
       </c>
@@ -8147,7 +9972,7 @@
       </c>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>68</v>
       </c>
@@ -8162,7 +9987,7 @@
       </c>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>68</v>
       </c>
@@ -8177,7 +10002,7 @@
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>68</v>
       </c>
@@ -8192,7 +10017,7 @@
       </c>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>68</v>
       </c>
@@ -8207,7 +10032,7 @@
       </c>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="158.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>68</v>
       </c>
@@ -8222,7 +10047,7 @@
       </c>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>69</v>
       </c>
@@ -8237,7 +10062,7 @@
       </c>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>69</v>
       </c>
@@ -8252,7 +10077,7 @@
       </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>69</v>
       </c>
@@ -8267,7 +10092,7 @@
       </c>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>69</v>
       </c>
@@ -8280,7 +10105,7 @@
       <c r="D57" s="15"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>69</v>
       </c>
@@ -8295,7 +10120,7 @@
       </c>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>69</v>
       </c>
@@ -8310,7 +10135,7 @@
       </c>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>69</v>
       </c>
@@ -8325,7 +10150,7 @@
       </c>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>77</v>
       </c>
@@ -8340,7 +10165,7 @@
       </c>
       <c r="E61" s="7"/>
     </row>
-    <row r="62" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>77</v>
       </c>
@@ -8355,7 +10180,7 @@
       </c>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>77</v>
       </c>
@@ -8370,7 +10195,7 @@
       </c>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5" ht="308.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="308.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>77</v>
       </c>
@@ -8383,7 +10208,7 @@
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>77</v>
       </c>
@@ -8398,7 +10223,7 @@
       </c>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>77</v>
       </c>
@@ -8413,7 +10238,7 @@
       </c>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>77</v>
       </c>
@@ -8428,7 +10253,7 @@
       </c>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>77</v>
       </c>
@@ -8443,7 +10268,7 @@
       </c>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>86</v>
       </c>
@@ -8456,7 +10281,7 @@
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>86</v>
       </c>
@@ -8469,7 +10294,7 @@
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>86</v>
       </c>
@@ -8482,7 +10307,7 @@
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>86</v>
       </c>
@@ -8495,7 +10320,7 @@
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>91</v>
       </c>
@@ -8510,7 +10335,7 @@
       </c>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>91</v>
       </c>
@@ -8525,7 +10350,7 @@
       </c>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>94</v>
       </c>
@@ -8540,7 +10365,7 @@
       </c>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>95</v>
       </c>
@@ -8555,7 +10380,7 @@
       </c>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>94</v>
       </c>
@@ -8570,7 +10395,7 @@
       </c>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>95</v>
       </c>
@@ -8583,7 +10408,7 @@
       <c r="D78" s="15"/>
       <c r="E78" s="7"/>
     </row>
-    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>100</v>
       </c>
@@ -8596,7 +10421,7 @@
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>100</v>
       </c>
@@ -8609,7 +10434,7 @@
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
     </row>
-    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>100</v>
       </c>
@@ -8622,7 +10447,7 @@
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>100</v>
       </c>
@@ -8635,7 +10460,7 @@
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>100</v>
       </c>
@@ -8648,7 +10473,7 @@
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>106</v>
       </c>
@@ -8661,7 +10486,7 @@
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>106</v>
       </c>
@@ -8674,7 +10499,7 @@
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>106</v>
       </c>
@@ -8687,7 +10512,7 @@
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
     </row>
-    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>106</v>
       </c>
@@ -8700,7 +10525,7 @@
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>106</v>
       </c>
@@ -8713,7 +10538,7 @@
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>113</v>
       </c>
@@ -8726,7 +10551,7 @@
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
     </row>
-    <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>113</v>
       </c>
@@ -8739,7 +10564,7 @@
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
     </row>
-    <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>113</v>
       </c>
@@ -8752,7 +10577,7 @@
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>113</v>
       </c>
@@ -8765,7 +10590,7 @@
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>113</v>
       </c>
@@ -8778,7 +10603,7 @@
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
     </row>
-    <row r="94" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>119</v>
       </c>
@@ -8791,7 +10616,7 @@
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>119</v>
       </c>
@@ -8804,7 +10629,7 @@
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>119</v>
       </c>
@@ -8817,7 +10642,7 @@
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>123</v>
       </c>
@@ -8830,7 +10655,7 @@
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>123</v>
       </c>
@@ -8843,7 +10668,7 @@
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>126</v>
       </c>
@@ -8856,7 +10681,7 @@
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>126</v>
       </c>
@@ -8869,7 +10694,7 @@
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>126</v>
       </c>
@@ -8882,7 +10707,7 @@
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>126</v>
       </c>
@@ -8895,7 +10720,7 @@
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
     </row>
-    <row r="103" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>126</v>
       </c>
@@ -8908,7 +10733,7 @@
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>126</v>
       </c>
@@ -8921,7 +10746,7 @@
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>132</v>
       </c>
@@ -8934,7 +10759,7 @@
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>132</v>
       </c>
@@ -8947,7 +10772,7 @@
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>132</v>
       </c>
@@ -8960,7 +10785,7 @@
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
     </row>
-    <row r="108" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>132</v>
       </c>
@@ -8973,7 +10798,7 @@
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>132</v>
       </c>
@@ -8986,7 +10811,7 @@
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
     </row>
-    <row r="110" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>132</v>
       </c>
@@ -8999,7 +10824,7 @@
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>140</v>
       </c>
@@ -9012,7 +10837,7 @@
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
     </row>
-    <row r="112" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>140</v>
       </c>
@@ -9025,7 +10850,7 @@
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>140</v>
       </c>
@@ -9038,7 +10863,7 @@
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
     </row>
-    <row r="114" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>144</v>
       </c>
@@ -9051,7 +10876,7 @@
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
     </row>
-    <row r="115" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>144</v>
       </c>
@@ -9064,7 +10889,7 @@
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
     </row>
-    <row r="116" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>144</v>
       </c>
@@ -9077,7 +10902,7 @@
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
     </row>
-    <row r="117" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>144</v>
       </c>
@@ -9090,7 +10915,7 @@
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>144</v>
       </c>
@@ -9103,7 +10928,7 @@
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>144</v>
       </c>
@@ -9116,7 +10941,7 @@
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>144</v>
       </c>
@@ -9129,7 +10954,7 @@
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
     </row>
-    <row r="121" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>144</v>
       </c>
@@ -9142,7 +10967,7 @@
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>153</v>
       </c>
@@ -9155,7 +10980,7 @@
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
     </row>
-    <row r="123" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>155</v>
       </c>
@@ -9168,7 +10993,7 @@
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
     </row>
-    <row r="124" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>155</v>
       </c>
@@ -9181,7 +11006,7 @@
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
     </row>
-    <row r="125" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>155</v>
       </c>
@@ -9194,7 +11019,7 @@
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
     </row>
-    <row r="126" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>155</v>
       </c>
@@ -9207,7 +11032,7 @@
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
     </row>
-    <row r="127" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>155</v>
       </c>
@@ -9220,7 +11045,7 @@
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>155</v>
       </c>
@@ -9233,7 +11058,7 @@
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
     </row>
-    <row r="129" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>155</v>
       </c>
@@ -9246,7 +11071,7 @@
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
     </row>
-    <row r="130" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>155</v>
       </c>
@@ -9259,7 +11084,7 @@
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
     </row>
-    <row r="131" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>164</v>
       </c>
@@ -9272,7 +11097,7 @@
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
     </row>
-    <row r="132" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>164</v>
       </c>
@@ -9285,7 +11110,7 @@
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
     </row>
-    <row r="133" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>170</v>
       </c>
@@ -9298,7 +11123,7 @@
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
     </row>
-    <row r="134" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>170</v>
       </c>
@@ -9311,7 +11136,7 @@
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
     </row>
-    <row r="135" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>169</v>
       </c>
@@ -9324,7 +11149,7 @@
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
     </row>
-    <row r="136" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>169</v>
       </c>
@@ -9337,7 +11162,7 @@
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
     </row>
-    <row r="137" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>169</v>
       </c>
@@ -9350,7 +11175,7 @@
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
     </row>
-    <row r="138" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>169</v>
       </c>
@@ -9363,7 +11188,7 @@
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
     </row>
-    <row r="139" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>169</v>
       </c>
@@ -9376,7 +11201,7 @@
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>169</v>
       </c>
@@ -9389,7 +11214,7 @@
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
     </row>
-    <row r="141" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>169</v>
       </c>
@@ -9402,7 +11227,7 @@
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
     </row>
-    <row r="142" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>178</v>
       </c>
@@ -9415,7 +11240,7 @@
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
     </row>
-    <row r="143" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>178</v>
       </c>
@@ -9428,7 +11253,7 @@
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
     </row>
-    <row r="144" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>181</v>
       </c>
@@ -9441,7 +11266,7 @@
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
     </row>
-    <row r="145" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>181</v>
       </c>
@@ -9454,7 +11279,7 @@
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
     </row>
-    <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>181</v>
       </c>
@@ -9467,7 +11292,7 @@
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>181</v>
       </c>
@@ -9480,7 +11305,7 @@
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
     </row>
-    <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>186</v>
       </c>
@@ -9493,7 +11318,7 @@
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
     </row>
-    <row r="149" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>186</v>
       </c>
@@ -9506,7 +11331,7 @@
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
     </row>
-    <row r="150" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>186</v>
       </c>
@@ -9519,7 +11344,7 @@
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
     </row>
-    <row r="151" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>186</v>
       </c>
@@ -9532,7 +11357,7 @@
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>186</v>
       </c>
@@ -9545,7 +11370,7 @@
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
     </row>
-    <row r="153" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>186</v>
       </c>
@@ -9558,7 +11383,7 @@
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>193</v>
       </c>
@@ -9571,7 +11396,7 @@
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
     </row>
-    <row r="155" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>193</v>
       </c>
@@ -9584,7 +11409,7 @@
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
     </row>
-    <row r="156" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>196</v>
       </c>
@@ -9597,7 +11422,7 @@
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>196</v>
       </c>
@@ -9610,7 +11435,7 @@
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
     </row>
-    <row r="158" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>199</v>
       </c>
@@ -9623,7 +11448,7 @@
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
     </row>
-    <row r="159" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>199</v>
       </c>
@@ -9636,7 +11461,7 @@
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
     </row>
-    <row r="160" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>202</v>
       </c>
@@ -9654,7 +11479,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>202</v>
       </c>
@@ -9672,7 +11497,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>202</v>
       </c>
@@ -9690,7 +11515,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>202</v>
       </c>
@@ -9708,7 +11533,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>202</v>
       </c>
@@ -9726,7 +11551,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>217</v>
       </c>
@@ -9744,7 +11569,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>217</v>
       </c>
@@ -9762,7 +11587,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>217</v>
       </c>
@@ -9782,7 +11607,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>224</v>
       </c>
@@ -9800,7 +11625,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>224</v>
       </c>
@@ -9818,7 +11643,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>224</v>
       </c>
@@ -9836,7 +11661,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>224</v>
       </c>
@@ -9854,7 +11679,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>236</v>
       </c>
@@ -9872,7 +11697,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>236</v>
       </c>
@@ -9890,7 +11715,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>236</v>
       </c>
@@ -9908,7 +11733,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>243</v>
       </c>
@@ -9926,7 +11751,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>243</v>
       </c>
@@ -9941,7 +11766,7 @@
       </c>
       <c r="E176" s="7"/>
     </row>
-    <row r="177" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>243</v>
       </c>
@@ -9956,7 +11781,7 @@
       </c>
       <c r="E177" s="7"/>
     </row>
-    <row r="178" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>248</v>
       </c>
@@ -9971,7 +11796,7 @@
       </c>
       <c r="E178" s="7"/>
     </row>
-    <row r="179" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>248</v>
       </c>
@@ -9986,7 +11811,7 @@
       </c>
       <c r="E179" s="7"/>
     </row>
-    <row r="180" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>248</v>
       </c>
@@ -10001,7 +11826,7 @@
       </c>
       <c r="E180" s="7"/>
     </row>
-    <row r="181" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>248</v>
       </c>
@@ -10016,791 +11841,791 @@
       </c>
       <c r="E181" s="7"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="8"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="8"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="8"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="8"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="8"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="8"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="8"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="8"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="8"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="8"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="8"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="8"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="8"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="8"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="8"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="8"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="8"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="8"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="8"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="8"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="8"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="8"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="8"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="8"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="8"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="8"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="8"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="8"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="8"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="8"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="8"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="8"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="8"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="8"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="8"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="8"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="8"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="8"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="8"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="8"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="8"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="8"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="8"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="8"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="8"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="8"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="8"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="8"/>
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="8"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="8"/>
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="8"/>
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="8"/>
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="8"/>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="8"/>
       <c r="C235" s="7"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="8"/>
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="8"/>
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="8"/>
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="8"/>
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="8"/>
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="8"/>
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="8"/>
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="8"/>
       <c r="C243" s="7"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="8"/>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="8"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="8"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="8"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="8"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="8"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="8"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="8"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="8"/>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="8"/>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="8"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="8"/>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="8"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="8"/>
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="8"/>
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="8"/>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="8"/>
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="8"/>
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="8"/>
       <c r="C262" s="7"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="8"/>
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="8"/>
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="8"/>
       <c r="C265" s="7"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="8"/>
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="8"/>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="8"/>
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="8"/>
       <c r="C269" s="7"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="8"/>
       <c r="C270" s="7"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="8"/>
       <c r="C271" s="7"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="8"/>
       <c r="C272" s="7"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="8"/>
       <c r="C273" s="7"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="8"/>
       <c r="C274" s="7"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="8"/>
       <c r="C275" s="7"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="8"/>
       <c r="C276" s="7"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="8"/>
       <c r="C277" s="7"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="8"/>
       <c r="C278" s="7"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="8"/>
       <c r="C279" s="7"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="8"/>
       <c r="C280" s="7"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="8"/>
       <c r="C281" s="7"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="8"/>
       <c r="C282" s="7"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="8"/>
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="8"/>
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
       <c r="B285" s="8"/>
       <c r="C285" s="7"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="8"/>
       <c r="C286" s="7"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="8"/>
       <c r="C287" s="7"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="8"/>
       <c r="C288" s="7"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="8"/>
       <c r="C289" s="7"/>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="8"/>
       <c r="C290" s="7"/>
       <c r="D290" s="7"/>
       <c r="E290" s="7"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="8"/>
       <c r="C291" s="7"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="8"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="8"/>
       <c r="C293" s="7"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="8"/>
       <c r="C294" s="7"/>
